--- a/Tennis/ATP Tour/Andy Murray.xlsx
+++ b/Tennis/ATP Tour/Andy Murray.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11365" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0655E584-8789-4A17-81AA-C158CD289D5B}"/>
+  <xr:revisionPtr revIDLastSave="11391" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66011000-4391-4946-AC3D-0A64AE09E7C0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="13" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="7848" yWindow="5448" windowWidth="17280" windowHeight="8880" firstSheet="13" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="9" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4772" uniqueCount="1013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4793" uniqueCount="1021">
   <si>
     <t>ROUND</t>
   </si>
@@ -3095,6 +3095,30 @@
   </si>
   <si>
     <t>6-3 6-3 4-6 6-7(7) 7-6(10-6)</t>
+  </si>
+  <si>
+    <t>Lorenzo Sonego (ITALY)</t>
+  </si>
+  <si>
+    <t>4-6 6-1 7-6(4)</t>
+  </si>
+  <si>
+    <t>Sascha Zverev (GERMANY)</t>
+  </si>
+  <si>
+    <t>7-6(5) 2-6 7-5</t>
+  </si>
+  <si>
+    <t>Alexandre Müller (FRANCE)</t>
+  </si>
+  <si>
+    <t>4-6 6-1 6-2</t>
+  </si>
+  <si>
+    <t>Jiří Lehečka (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>6-0 3-6 7-6(6)</t>
   </si>
 </sst>
 </file>
@@ -3644,7 +3668,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3818,7 +3842,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4401,7 +4425,7 @@
                   <c:v>0.34482758620689657</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13364,8 +13388,8 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13931,7 +13955,7 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="E52" activeCellId="15" sqref="E6 E8 E11 E14 E18 E21 E24 E26 E29 E33 E36 E40 E43 E46 E48 E52"/>
     </sheetView>
   </sheetViews>
@@ -15575,10 +15599,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E8" activeCellId="4" sqref="A2 A4 A8 E4:E5 E8:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15666,9 +15690,6 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
       <c r="D6" t="s">
         <v>892</v>
       </c>
@@ -15677,6 +15698,82 @@
       </c>
       <c r="F6" t="s">
         <v>1009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>940</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -15693,7 +15790,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A22 F1:F22"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16157,20 +16254,20 @@
         <v>2023</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -16179,7 +16276,7 @@
       </c>
       <c r="B23" s="2">
         <f>SUM(B2:B22)</f>
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C23" s="2">
         <f>SUM(C2:C22)</f>
@@ -16187,15 +16284,15 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D2:D22)</f>
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E2:E22)</f>
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" ref="F23:F24" si="1">(D23-E23)/D23</f>
-        <v>0.66800000000000004</v>
+        <v>0.66974900924702774</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -16204,7 +16301,7 @@
       </c>
       <c r="B24" s="2">
         <f>AVERAGE(B2:B22)</f>
-        <v>14.904761904761905</v>
+        <v>14.952380952380953</v>
       </c>
       <c r="C24" s="2">
         <f>AVERAGE(C2:C22)</f>
@@ -16212,15 +16309,15 @@
       </c>
       <c r="D24" s="2">
         <f>AVERAGE(D2:D22)</f>
-        <v>35.714285714285715</v>
+        <v>36.047619047619051</v>
       </c>
       <c r="E24" s="2">
         <f>AVERAGE(E2:E22)</f>
-        <v>11.857142857142858</v>
+        <v>11.904761904761905</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="1"/>
-        <v>0.66800000000000004</v>
+        <v>0.66974900924702774</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Andy Murray.xlsx
+++ b/Tennis/ATP Tour/Andy Murray.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11391" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66011000-4391-4946-AC3D-0A64AE09E7C0}"/>
+  <xr:revisionPtr revIDLastSave="11420" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42C39C63-2E7B-42CB-A51F-BF4410D31E3D}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7848" yWindow="5448" windowWidth="17280" windowHeight="8880" firstSheet="13" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="9" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4793" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4814" uniqueCount="1027">
   <si>
     <t>ROUND</t>
   </si>
@@ -2863,9 +2863,6 @@
     <t>EASTBOURNE INTERNATIONAL</t>
   </si>
   <si>
-    <t>MacKenzie McDonald (USA)</t>
-  </si>
-  <si>
     <t>Alex De Minaur (AUSTRALIA)</t>
   </si>
   <si>
@@ -3119,6 +3116,27 @@
   </si>
   <si>
     <t>6-0 3-6 7-6(6)</t>
+  </si>
+  <si>
+    <t>Tomás Martín Etcheverry (ARGENTINA)</t>
+  </si>
+  <si>
+    <t>Mackie McDonald (USA)</t>
+  </si>
+  <si>
+    <t>6-7(5) 6-1 6-4</t>
+  </si>
+  <si>
+    <t>Radu Albot (MOLDOVA)</t>
+  </si>
+  <si>
+    <t>Jack Draper (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>7-6(6) 6-2</t>
+  </si>
+  <si>
+    <t>Dušan Lajović (SERBIA)</t>
   </si>
 </sst>
 </file>
@@ -3668,7 +3686,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3842,7 +3860,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4425,7 +4443,7 @@
                   <c:v>0.34482758620689657</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9709,7 +9727,7 @@
   </sheetPr>
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -11068,7 +11086,7 @@
   </sheetPr>
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -13124,7 +13142,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" activeCellId="3" sqref="E4 E7:E9 E14 E17:E18"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13222,7 +13240,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>935</v>
+        <v>1021</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>16</v>
@@ -13264,7 +13282,7 @@
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>372</v>
@@ -13304,7 +13322,7 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
@@ -13338,13 +13356,13 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
+        <v>937</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
         <v>938</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -13433,7 +13451,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -13447,7 +13465,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>17</v>
@@ -13498,7 +13516,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -13507,7 +13525,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>17</v>
@@ -13518,7 +13536,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -13527,7 +13545,7 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
@@ -13541,7 +13559,7 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
@@ -13555,7 +13573,7 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>17</v>
@@ -13566,7 +13584,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -13575,7 +13593,7 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>16</v>
@@ -13589,7 +13607,7 @@
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>17</v>
@@ -13609,7 +13627,7 @@
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>16</v>
@@ -13623,7 +13641,7 @@
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>16</v>
@@ -13657,7 +13675,7 @@
         <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>16</v>
@@ -13682,7 +13700,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
@@ -13691,7 +13709,7 @@
         <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>16</v>
@@ -13719,7 +13737,7 @@
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
@@ -13733,7 +13751,7 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>16</v>
@@ -13764,7 +13782,7 @@
         <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
@@ -13831,7 +13849,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -13879,7 +13897,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
@@ -13893,7 +13911,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>17</v>
@@ -13991,7 +14009,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -14000,7 +14018,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -14014,7 +14032,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
@@ -14067,7 +14085,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -14076,7 +14094,7 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>17</v>
@@ -14144,7 +14162,7 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>17</v>
@@ -14164,7 +14182,7 @@
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>16</v>
@@ -14178,7 +14196,7 @@
         <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
@@ -14192,7 +14210,7 @@
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>17</v>
@@ -14226,7 +14244,7 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>17</v>
@@ -14237,7 +14255,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B23" t="s">
         <v>18</v>
@@ -14246,7 +14264,7 @@
         <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>16</v>
@@ -14260,7 +14278,7 @@
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>17</v>
@@ -14280,7 +14298,7 @@
         <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>17</v>
@@ -14291,7 +14309,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B28" t="s">
         <v>18</v>
@@ -14300,7 +14318,7 @@
         <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>16</v>
@@ -14314,7 +14332,7 @@
         <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>17</v>
@@ -14334,7 +14352,7 @@
         <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
@@ -14362,7 +14380,7 @@
         <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>17</v>
@@ -14373,7 +14391,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B35" t="s">
         <v>18</v>
@@ -14382,7 +14400,7 @@
         <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>16</v>
@@ -14396,7 +14414,7 @@
         <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>17</v>
@@ -14430,7 +14448,7 @@
         <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>16</v>
@@ -14455,7 +14473,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B42" t="s">
         <v>18</v>
@@ -14464,7 +14482,7 @@
         <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>16</v>
@@ -14478,7 +14496,7 @@
         <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>17</v>
@@ -14498,7 +14516,7 @@
         <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>16</v>
@@ -14512,7 +14530,7 @@
         <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>17</v>
@@ -14532,7 +14550,7 @@
         <v>23</v>
       </c>
       <c r="D48" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>17</v>
@@ -14543,7 +14561,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B50" t="s">
         <v>18</v>
@@ -14552,7 +14570,7 @@
         <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>16</v>
@@ -14566,7 +14584,7 @@
         <v>20</v>
       </c>
       <c r="D51" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>16</v>
@@ -14580,7 +14598,7 @@
         <v>30</v>
       </c>
       <c r="D52" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>17</v>
@@ -14780,7 +14798,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -14789,7 +14807,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>17</v>
@@ -14800,7 +14818,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -14809,7 +14827,7 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
@@ -14823,7 +14841,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
@@ -14843,7 +14861,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -14851,7 +14869,7 @@
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>16</v>
@@ -14865,7 +14883,7 @@
         <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>17</v>
@@ -14885,7 +14903,7 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
@@ -14933,7 +14951,7 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>17</v>
@@ -14987,7 +15005,7 @@
         <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>16</v>
@@ -15001,7 +15019,7 @@
         <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>17</v>
@@ -15055,7 +15073,7 @@
         <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>16</v>
@@ -15069,7 +15087,7 @@
         <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>17</v>
@@ -15103,7 +15121,7 @@
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>16</v>
@@ -15137,7 +15155,7 @@
         <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>16</v>
@@ -15151,7 +15169,7 @@
         <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>16</v>
@@ -15165,7 +15183,7 @@
         <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>16</v>
@@ -15179,7 +15197,7 @@
         <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>17</v>
@@ -15190,7 +15208,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B37" t="s">
         <v>45</v>
@@ -15199,7 +15217,7 @@
         <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>16</v>
@@ -15227,7 +15245,7 @@
         <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>16</v>
@@ -15255,7 +15273,7 @@
         <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>17</v>
@@ -15275,7 +15293,7 @@
         <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>16</v>
@@ -15323,7 +15341,7 @@
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>16</v>
@@ -15357,7 +15375,7 @@
         <v>23</v>
       </c>
       <c r="D50" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>17</v>
@@ -15377,7 +15395,7 @@
         <v>23</v>
       </c>
       <c r="D52" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>17</v>
@@ -15411,7 +15429,7 @@
         <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>17</v>
@@ -15431,7 +15449,7 @@
         <v>22</v>
       </c>
       <c r="D57" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>16</v>
@@ -15445,7 +15463,7 @@
         <v>23</v>
       </c>
       <c r="D58" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>16</v>
@@ -15459,7 +15477,7 @@
         <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>17</v>
@@ -15476,7 +15494,7 @@
         <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>16</v>
@@ -15487,7 +15505,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B63" t="s">
         <v>18</v>
@@ -15496,7 +15514,7 @@
         <v>19</v>
       </c>
       <c r="D63" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>16</v>
@@ -15510,7 +15528,7 @@
         <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>16</v>
@@ -15524,7 +15542,7 @@
         <v>30</v>
       </c>
       <c r="D65" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>17</v>
@@ -15544,7 +15562,7 @@
         <v>19</v>
       </c>
       <c r="D67" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>16</v>
@@ -15578,7 +15596,7 @@
         <v>23</v>
       </c>
       <c r="D70" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>17</v>
@@ -15599,10 +15617,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" activeCellId="4" sqref="A2 A4 A8 E4:E5 E8:E11"/>
+      <selection activeCell="E14" activeCellId="2" sqref="E4:E5 E8:E11 E14:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15610,7 +15628,7 @@
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -15637,7 +15655,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -15646,7 +15664,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>17</v>
@@ -15666,13 +15684,13 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -15686,10 +15704,13 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
       <c r="D6" t="s">
         <v>892</v>
       </c>
@@ -15697,7 +15718,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -15711,13 +15732,13 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
         <v>1013</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -15725,13 +15746,13 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>1015</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -15739,13 +15760,13 @@
         <v>30</v>
       </c>
       <c r="D10" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
         <v>1017</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -15753,13 +15774,13 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
         <v>1019</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -15767,13 +15788,81 @@
         <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -16254,20 +16343,20 @@
         <v>2023</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -16276,7 +16365,7 @@
       </c>
       <c r="B23" s="2">
         <f>SUM(B2:B22)</f>
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C23" s="2">
         <f>SUM(C2:C22)</f>
@@ -16284,15 +16373,15 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D2:D22)</f>
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E2:E22)</f>
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" ref="F23:F24" si="1">(D23-E23)/D23</f>
-        <v>0.66974900924702774</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -16301,7 +16390,7 @@
       </c>
       <c r="B24" s="2">
         <f>AVERAGE(B2:B22)</f>
-        <v>14.952380952380953</v>
+        <v>15.047619047619047</v>
       </c>
       <c r="C24" s="2">
         <f>AVERAGE(C2:C22)</f>
@@ -16309,15 +16398,15 @@
       </c>
       <c r="D24" s="2">
         <f>AVERAGE(D2:D22)</f>
-        <v>36.047619047619051</v>
+        <v>36</v>
       </c>
       <c r="E24" s="2">
         <f>AVERAGE(E2:E22)</f>
-        <v>11.904761904761905</v>
+        <v>12</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="1"/>
-        <v>0.66974900924702774</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Andy Murray.xlsx
+++ b/Tennis/ATP Tour/Andy Murray.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11420" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42C39C63-2E7B-42CB-A51F-BF4410D31E3D}"/>
+  <xr:revisionPtr revIDLastSave="11428" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E9594E2-026D-46ED-8AE1-F83C0D746A57}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="2892" yWindow="2892" windowWidth="17280" windowHeight="8880" firstSheet="12" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="9" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4814" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4820" uniqueCount="1027">
   <si>
     <t>ROUND</t>
   </si>
@@ -3860,7 +3860,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4443,7 +4443,7 @@
                   <c:v>0.34482758620689657</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.375</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15617,10 +15617,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" activeCellId="2" sqref="E4:E5 E8:E11 E14:E15"/>
+      <selection activeCell="E20" activeCellId="5" sqref="E2 E6 E12 E16 E18 E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15863,6 +15863,26 @@
       </c>
       <c r="F18" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>947</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -16343,7 +16363,7 @@
         <v>2023</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -16352,11 +16372,11 @@
         <v>8</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -16365,7 +16385,7 @@
       </c>
       <c r="B23" s="2">
         <f>SUM(B2:B22)</f>
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C23" s="2">
         <f>SUM(C2:C22)</f>
@@ -16377,11 +16397,11 @@
       </c>
       <c r="E23" s="2">
         <f>SUM(E2:E22)</f>
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" ref="F23:F24" si="1">(D23-E23)/D23</f>
-        <v>0.66666666666666663</v>
+        <v>0.66534391534391535</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -16390,7 +16410,7 @@
       </c>
       <c r="B24" s="2">
         <f>AVERAGE(B2:B22)</f>
-        <v>15.047619047619047</v>
+        <v>15.095238095238095</v>
       </c>
       <c r="C24" s="2">
         <f>AVERAGE(C2:C22)</f>
@@ -16402,11 +16422,11 @@
       </c>
       <c r="E24" s="2">
         <f>AVERAGE(E2:E22)</f>
-        <v>12</v>
+        <v>12.047619047619047</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.66534391534391535</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Andy Murray.xlsx
+++ b/Tennis/ATP Tour/Andy Murray.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11428" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E9594E2-026D-46ED-8AE1-F83C0D746A57}"/>
+  <xr:revisionPtr revIDLastSave="11429" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8DFA994-5181-4897-A0B9-FE5F7D46625F}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2892" yWindow="2892" windowWidth="17280" windowHeight="8880" firstSheet="12" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="23" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="9" r:id="rId1"/>
@@ -5858,7 +5858,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{333500D8-521C-4E52-9543-BD16AC14D6B9}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5930,10 +5930,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6239,7 +6235,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" activeCellId="2" sqref="E4 E6 E9"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6388,7 +6384,7 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -7601,7 +7597,7 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11086,7 +11082,7 @@
   </sheetPr>
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -12509,7 +12505,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:B40"/>
+      <selection activeCell="F42" sqref="F42:F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14621,17 +14617,17 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" activeCellId="3" sqref="E2 E5 E7 E9"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -15898,7 +15894,7 @@
   </sheetPr>
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -16451,8 +16447,8 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A52" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17298,7 +17294,7 @@
   </sheetPr>
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
@@ -18395,7 +18391,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19294,8 +19290,8 @@
   </sheetPr>
   <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A73" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20504,8 +20500,8 @@
   </sheetPr>
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A64" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21752,8 +21748,8 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A40" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22810,7 +22806,7 @@
   <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A67" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/ATP Tour/Andy Murray.xlsx
+++ b/Tennis/ATP Tour/Andy Murray.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11429" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8DFA994-5181-4897-A0B9-FE5F7D46625F}"/>
+  <xr:revisionPtr revIDLastSave="11439" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97CB6BA2-1F68-4316-A44F-C9546D1C6612}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="23" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="9" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4820" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4826" uniqueCount="1028">
   <si>
     <t>ROUND</t>
   </si>
@@ -1360,9 +1360,6 @@
     <t>1-6 6-3 7-5</t>
   </si>
   <si>
-    <t>MUTUA MADRID OPEN</t>
-  </si>
-  <si>
     <t>7-6(9) 6-4</t>
   </si>
   <si>
@@ -3137,6 +3134,12 @@
   </si>
   <si>
     <t>Dušan Lajović (SERBIA)</t>
+  </si>
+  <si>
+    <t>MADRID OPEN</t>
+  </si>
+  <si>
+    <t>Andrea Vavassori (ITALY)</t>
   </si>
 </sst>
 </file>
@@ -3860,7 +3863,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4443,7 +4446,7 @@
                   <c:v>0.34482758620689657</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.25</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5858,7 +5861,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{333500D8-521C-4E52-9543-BD16AC14D6B9}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5930,6 +5933,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6420,7 +6427,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -6429,13 +6436,13 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -6443,13 +6450,13 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -6457,7 +6464,7 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
@@ -6471,7 +6478,7 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
@@ -6505,13 +6512,13 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -6519,7 +6526,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>16</v>
@@ -6539,7 +6546,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -6547,13 +6554,13 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -6561,13 +6568,13 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6581,7 +6588,7 @@
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -6595,7 +6602,7 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>16</v>
@@ -6609,7 +6616,7 @@
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>16</v>
@@ -6671,7 +6678,7 @@
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>17</v>
@@ -6705,7 +6712,7 @@
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>16</v>
@@ -6719,7 +6726,7 @@
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>16</v>
@@ -6739,7 +6746,7 @@
         <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -6781,7 +6788,7 @@
         <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
@@ -6795,13 +6802,13 @@
         <v>20</v>
       </c>
       <c r="D31" t="s">
+        <v>624</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
         <v>625</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -6815,7 +6822,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -6843,7 +6850,7 @@
         <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>16</v>
@@ -6857,13 +6864,13 @@
         <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F36" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -6877,13 +6884,13 @@
         <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -6891,13 +6898,13 @@
         <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -6911,13 +6918,13 @@
         <v>22</v>
       </c>
       <c r="D41" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -6931,7 +6938,7 @@
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -6939,13 +6946,13 @@
         <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -6953,13 +6960,13 @@
         <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -6973,7 +6980,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -6987,13 +6994,13 @@
         <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F47" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -7013,7 +7020,7 @@
         <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -7027,7 +7034,7 @@
         <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -7041,7 +7048,7 @@
         <v>16</v>
       </c>
       <c r="F51" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -7055,7 +7062,7 @@
         <v>16</v>
       </c>
       <c r="F52" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -7069,7 +7076,7 @@
         <v>16</v>
       </c>
       <c r="F53" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -7083,7 +7090,7 @@
         <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -7097,12 +7104,12 @@
         <v>17</v>
       </c>
       <c r="F55" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B57" t="s">
         <v>45</v>
@@ -7145,7 +7152,7 @@
         <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -7187,7 +7194,7 @@
         <v>16</v>
       </c>
       <c r="F62" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -7201,7 +7208,7 @@
         <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>16</v>
@@ -7215,7 +7222,7 @@
         <v>20</v>
       </c>
       <c r="D65" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>372</v>
@@ -7249,7 +7256,7 @@
         <v>20</v>
       </c>
       <c r="D68" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>17</v>
@@ -7275,7 +7282,7 @@
         <v>16</v>
       </c>
       <c r="F70" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -7283,13 +7290,13 @@
         <v>23</v>
       </c>
       <c r="D71" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F71" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -7303,7 +7310,7 @@
         <v>16</v>
       </c>
       <c r="F72" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -7311,13 +7318,13 @@
         <v>20</v>
       </c>
       <c r="D73" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F73" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -7331,7 +7338,7 @@
         <v>16</v>
       </c>
       <c r="F74" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -7345,7 +7352,7 @@
         <v>16</v>
       </c>
       <c r="F75" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -7359,7 +7366,7 @@
         <v>16</v>
       </c>
       <c r="F76" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -7379,7 +7386,7 @@
         <v>16</v>
       </c>
       <c r="F78" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -7387,7 +7394,7 @@
         <v>20</v>
       </c>
       <c r="D79" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>16</v>
@@ -7407,7 +7414,7 @@
         <v>16</v>
       </c>
       <c r="F80" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -7415,18 +7422,18 @@
         <v>31</v>
       </c>
       <c r="D81" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F81" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B83" t="s">
         <v>18</v>
@@ -7435,7 +7442,7 @@
         <v>20</v>
       </c>
       <c r="D83" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>16</v>
@@ -7483,7 +7490,7 @@
         <v>17</v>
       </c>
       <c r="F86" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -7511,13 +7518,13 @@
         <v>20</v>
       </c>
       <c r="D89" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F89" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -7565,7 +7572,7 @@
         <v>16</v>
       </c>
       <c r="F93" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -7632,7 +7639,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -7641,13 +7648,13 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -7655,13 +7662,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -7669,13 +7676,13 @@
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -7683,13 +7690,13 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -7709,7 +7716,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -7717,13 +7724,13 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -7731,13 +7738,13 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -7751,7 +7758,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -7759,13 +7766,13 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -7779,7 +7786,7 @@
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -7793,7 +7800,7 @@
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -7807,13 +7814,13 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
+        <v>648</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
         <v>649</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -7821,7 +7828,7 @@
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>16</v>
@@ -7835,13 +7842,13 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -7855,7 +7862,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -7869,7 +7876,7 @@
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>16</v>
@@ -7883,7 +7890,7 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>16</v>
@@ -7931,7 +7938,7 @@
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -7945,7 +7952,7 @@
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -7959,7 +7966,7 @@
         <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
@@ -7984,7 +7991,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>434</v>
+        <v>1026</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -7993,13 +8000,13 @@
         <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -8013,7 +8020,7 @@
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -8047,7 +8054,7 @@
         <v>17</v>
       </c>
       <c r="F34" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -8061,7 +8068,7 @@
         <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>16</v>
@@ -8075,7 +8082,7 @@
         <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>16</v>
@@ -8089,13 +8096,13 @@
         <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -8123,7 +8130,7 @@
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -8137,13 +8144,13 @@
         <v>22</v>
       </c>
       <c r="D42" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -8151,13 +8158,13 @@
         <v>23</v>
       </c>
       <c r="D43" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -8171,7 +8178,7 @@
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -8185,7 +8192,7 @@
         <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -8199,7 +8206,7 @@
         <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -8207,13 +8214,13 @@
         <v>31</v>
       </c>
       <c r="D47" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -8227,7 +8234,7 @@
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -8247,7 +8254,7 @@
         <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -8329,7 +8336,7 @@
         <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -8337,13 +8344,13 @@
         <v>23</v>
       </c>
       <c r="D58" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -8351,13 +8358,13 @@
         <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -8365,13 +8372,13 @@
         <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -8385,7 +8392,7 @@
         <v>17</v>
       </c>
       <c r="F61" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -8396,24 +8403,24 @@
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F63" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F64" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>
@@ -8475,7 +8482,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -8489,13 +8496,13 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -8509,13 +8516,13 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -8523,13 +8530,13 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -8543,7 +8550,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -8551,13 +8558,13 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -8571,7 +8578,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -8582,24 +8589,24 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -8613,7 +8620,7 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
@@ -8627,7 +8634,7 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>16</v>
@@ -8652,7 +8659,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -8661,13 +8668,13 @@
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -8675,7 +8682,7 @@
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>16</v>
@@ -8695,7 +8702,7 @@
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -8703,13 +8710,13 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -8723,7 +8730,7 @@
         <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>16</v>
@@ -8737,13 +8744,13 @@
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -8751,13 +8758,13 @@
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -8771,13 +8778,13 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -8836,7 +8843,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -8847,12 +8854,12 @@
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>434</v>
+        <v>1026</v>
       </c>
       <c r="B35" t="s">
         <v>14</v>
@@ -8867,7 +8874,7 @@
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -8875,7 +8882,7 @@
         <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>17</v>
@@ -8949,7 +8956,7 @@
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -8957,13 +8964,13 @@
         <v>23</v>
       </c>
       <c r="D43" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -8971,13 +8978,13 @@
         <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -8991,7 +8998,7 @@
         <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -9005,7 +9012,7 @@
         <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -9019,7 +9026,7 @@
         <v>17</v>
       </c>
       <c r="F47" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -9053,7 +9060,7 @@
         <v>17</v>
       </c>
       <c r="F50" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -9067,13 +9074,13 @@
         <v>22</v>
       </c>
       <c r="D52" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F52" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -9081,13 +9088,13 @@
         <v>23</v>
       </c>
       <c r="D53" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F53" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -9095,13 +9102,13 @@
         <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -9109,13 +9116,13 @@
         <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -9123,13 +9130,13 @@
         <v>30</v>
       </c>
       <c r="D56" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -9143,7 +9150,7 @@
         <v>19</v>
       </c>
       <c r="D58" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>16</v>
@@ -9177,7 +9184,7 @@
         <v>17</v>
       </c>
       <c r="F60" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -9191,7 +9198,7 @@
         <v>19</v>
       </c>
       <c r="D62" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>16</v>
@@ -9205,7 +9212,7 @@
         <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>16</v>
@@ -9245,7 +9252,7 @@
         <v>16</v>
       </c>
       <c r="F66" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -9253,13 +9260,13 @@
         <v>23</v>
       </c>
       <c r="D67" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F67" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -9267,13 +9274,13 @@
         <v>19</v>
       </c>
       <c r="D68" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F68" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -9287,7 +9294,7 @@
         <v>16</v>
       </c>
       <c r="F69" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -9301,12 +9308,12 @@
         <v>17</v>
       </c>
       <c r="F70" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B72" t="s">
         <v>18</v>
@@ -9315,7 +9322,7 @@
         <v>20</v>
       </c>
       <c r="D72" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>16</v>
@@ -9329,7 +9336,7 @@
         <v>30</v>
       </c>
       <c r="D73" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>16</v>
@@ -9349,7 +9356,7 @@
         <v>16</v>
       </c>
       <c r="F74" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -9363,27 +9370,27 @@
         <v>16</v>
       </c>
       <c r="F75" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B77" t="s">
+        <v>684</v>
+      </c>
+      <c r="C77" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" t="s">
+        <v>464</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" t="s">
         <v>685</v>
-      </c>
-      <c r="C77" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77" t="s">
-        <v>465</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F77" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -9430,7 +9437,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B82" t="s">
         <v>18</v>
@@ -9439,13 +9446,13 @@
         <v>23</v>
       </c>
       <c r="D82" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F82" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -9453,7 +9460,7 @@
         <v>19</v>
       </c>
       <c r="D83" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>16</v>
@@ -9473,21 +9480,21 @@
         <v>17</v>
       </c>
       <c r="F84" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B86" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C86" t="s">
         <v>20</v>
       </c>
       <c r="D86" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>16</v>
@@ -9501,7 +9508,7 @@
         <v>30</v>
       </c>
       <c r="D87" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>16</v>
@@ -9535,12 +9542,12 @@
         <v>16</v>
       </c>
       <c r="F89" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B91" t="s">
         <v>18</v>
@@ -9577,13 +9584,13 @@
         <v>30</v>
       </c>
       <c r="D93" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F93" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -9611,7 +9618,7 @@
         <v>16</v>
       </c>
       <c r="F95" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -9639,7 +9646,7 @@
         <v>20</v>
       </c>
       <c r="D98" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>16</v>
@@ -9673,7 +9680,7 @@
         <v>409</v>
       </c>
       <c r="D101" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>16</v>
@@ -9687,7 +9694,7 @@
         <v>409</v>
       </c>
       <c r="D102" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>17</v>
@@ -9707,7 +9714,7 @@
         <v>17</v>
       </c>
       <c r="F103" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -9768,13 +9775,13 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -9782,13 +9789,13 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -9796,13 +9803,13 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -9810,13 +9817,13 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -9824,13 +9831,13 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -9844,7 +9851,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -9858,7 +9865,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -9872,7 +9879,7 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
@@ -9886,7 +9893,7 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
@@ -9920,7 +9927,7 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
@@ -9934,7 +9941,7 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>16</v>
@@ -9948,7 +9955,7 @@
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>17</v>
@@ -9965,24 +9972,24 @@
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -9996,7 +10003,7 @@
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>16</v>
@@ -10010,13 +10017,13 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -10024,7 +10031,7 @@
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>16</v>
@@ -10072,7 +10079,7 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
@@ -10086,7 +10093,7 @@
         <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>16</v>
@@ -10100,7 +10107,7 @@
         <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>16</v>
@@ -10114,13 +10121,13 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -10148,12 +10155,12 @@
         <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
@@ -10162,7 +10169,7 @@
         <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>16</v>
@@ -10176,7 +10183,7 @@
         <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>16</v>
@@ -10190,7 +10197,7 @@
         <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>16</v>
@@ -10204,18 +10211,18 @@
         <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>434</v>
+        <v>1026</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
@@ -10224,13 +10231,13 @@
         <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -10244,7 +10251,7 @@
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -10252,7 +10259,7 @@
         <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>16</v>
@@ -10266,7 +10273,7 @@
         <v>31</v>
       </c>
       <c r="D42" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>16</v>
@@ -10300,7 +10307,7 @@
         <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>16</v>
@@ -10314,7 +10321,7 @@
         <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>372</v>
@@ -10334,13 +10341,13 @@
         <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -10348,13 +10355,13 @@
         <v>23</v>
       </c>
       <c r="D49" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -10362,13 +10369,13 @@
         <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -10376,13 +10383,13 @@
         <v>20</v>
       </c>
       <c r="D51" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F51" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -10396,7 +10403,7 @@
         <v>16</v>
       </c>
       <c r="F52" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -10410,7 +10417,7 @@
         <v>17</v>
       </c>
       <c r="F53" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -10424,7 +10431,7 @@
         <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>16</v>
@@ -10452,7 +10459,7 @@
         <v>30</v>
       </c>
       <c r="D57" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>16</v>
@@ -10480,7 +10487,7 @@
         <v>38</v>
       </c>
       <c r="D59" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>16</v>
@@ -10500,13 +10507,13 @@
         <v>22</v>
       </c>
       <c r="D61" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -10520,7 +10527,7 @@
         <v>16</v>
       </c>
       <c r="F62" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -10534,7 +10541,7 @@
         <v>16</v>
       </c>
       <c r="F63" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -10548,7 +10555,7 @@
         <v>16</v>
       </c>
       <c r="F64" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -10556,13 +10563,13 @@
         <v>30</v>
       </c>
       <c r="D65" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F65" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -10576,7 +10583,7 @@
         <v>17</v>
       </c>
       <c r="F66" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -10593,7 +10600,7 @@
         <v>16</v>
       </c>
       <c r="F68" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -10604,7 +10611,7 @@
         <v>16</v>
       </c>
       <c r="F69" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -10618,13 +10625,13 @@
         <v>19</v>
       </c>
       <c r="D71" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F71" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -10652,7 +10659,7 @@
         <v>20</v>
       </c>
       <c r="D74" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>16</v>
@@ -10680,13 +10687,13 @@
         <v>31</v>
       </c>
       <c r="D76" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F76" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -10700,7 +10707,7 @@
         <v>16</v>
       </c>
       <c r="F77" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -10714,13 +10721,13 @@
         <v>19</v>
       </c>
       <c r="D79" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F79" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -10728,7 +10735,7 @@
         <v>20</v>
       </c>
       <c r="D80" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>16</v>
@@ -10748,7 +10755,7 @@
         <v>16</v>
       </c>
       <c r="F81" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -10776,13 +10783,13 @@
         <v>22</v>
       </c>
       <c r="D84" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F84" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -10790,13 +10797,13 @@
         <v>23</v>
       </c>
       <c r="D85" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F85" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -10804,7 +10811,7 @@
         <v>19</v>
       </c>
       <c r="D86" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>16</v>
@@ -10818,13 +10825,13 @@
         <v>20</v>
       </c>
       <c r="D87" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F87" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -10835,29 +10842,29 @@
         <v>18</v>
       </c>
       <c r="D89" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F89" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F90" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B92" t="s">
         <v>18</v>
@@ -10866,7 +10873,7 @@
         <v>19</v>
       </c>
       <c r="D92" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>16</v>
@@ -10880,13 +10887,13 @@
         <v>20</v>
       </c>
       <c r="D93" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F93" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -10928,7 +10935,7 @@
         <v>19</v>
       </c>
       <c r="D97" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>16</v>
@@ -10942,7 +10949,7 @@
         <v>20</v>
       </c>
       <c r="D98" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>16</v>
@@ -10962,7 +10969,7 @@
         <v>16</v>
       </c>
       <c r="F99" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -11010,7 +11017,7 @@
         <v>17</v>
       </c>
       <c r="F103" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -11018,7 +11025,7 @@
         <v>409</v>
       </c>
       <c r="D104" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>17</v>
@@ -11049,18 +11056,18 @@
         <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F107" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D108" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>16</v>
@@ -11127,13 +11134,13 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -11141,13 +11148,13 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -11155,13 +11162,13 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -11169,13 +11176,13 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -11189,7 +11196,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -11197,13 +11204,13 @@
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -11217,7 +11224,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -11228,24 +11235,24 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -11265,7 +11272,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -11273,13 +11280,13 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -11293,7 +11300,7 @@
         <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>16</v>
@@ -11307,13 +11314,13 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -11327,13 +11334,13 @@
         <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -11341,13 +11348,13 @@
         <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -11355,13 +11362,13 @@
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -11375,12 +11382,12 @@
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>434</v>
+        <v>1026</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -11395,7 +11402,7 @@
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -11451,7 +11458,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -11465,7 +11472,7 @@
         <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
@@ -11479,7 +11486,7 @@
         <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
@@ -11493,13 +11500,13 @@
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -11507,7 +11514,7 @@
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>16</v>
@@ -11547,7 +11554,7 @@
         <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -11555,13 +11562,13 @@
         <v>23</v>
       </c>
       <c r="D37" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -11575,7 +11582,7 @@
         <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -11583,13 +11590,13 @@
         <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -11603,7 +11610,7 @@
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -11617,7 +11624,7 @@
         <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -11631,7 +11638,7 @@
         <v>17</v>
       </c>
       <c r="F42" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -11651,7 +11658,7 @@
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -11659,7 +11666,7 @@
         <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>16</v>
@@ -11673,7 +11680,7 @@
         <v>30</v>
       </c>
       <c r="D46" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>16</v>
@@ -11693,7 +11700,7 @@
         <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -11701,13 +11708,13 @@
         <v>38</v>
       </c>
       <c r="D48" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -11721,13 +11728,13 @@
         <v>22</v>
       </c>
       <c r="D50" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -11735,13 +11742,13 @@
         <v>23</v>
       </c>
       <c r="D51" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F51" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -11749,13 +11756,13 @@
         <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F52" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -11763,13 +11770,13 @@
         <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F53" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -11783,7 +11790,7 @@
         <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -11797,7 +11804,7 @@
         <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -11805,18 +11812,18 @@
         <v>38</v>
       </c>
       <c r="D56" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F56" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B58" t="s">
         <v>18</v>
@@ -11859,7 +11866,7 @@
         <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -11867,13 +11874,13 @@
         <v>30</v>
       </c>
       <c r="D61" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -11881,7 +11888,7 @@
         <v>31</v>
       </c>
       <c r="D62" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>16</v>
@@ -11901,7 +11908,7 @@
         <v>16</v>
       </c>
       <c r="F63" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -11929,7 +11936,7 @@
         <v>20</v>
       </c>
       <c r="D66" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>16</v>
@@ -11943,7 +11950,7 @@
         <v>30</v>
       </c>
       <c r="D67" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>16</v>
@@ -11957,7 +11964,7 @@
         <v>31</v>
       </c>
       <c r="D68" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>16</v>
@@ -11991,13 +11998,13 @@
         <v>22</v>
       </c>
       <c r="D71" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F71" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -12011,7 +12018,7 @@
         <v>16</v>
       </c>
       <c r="F72" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -12025,7 +12032,7 @@
         <v>16</v>
       </c>
       <c r="F73" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -12033,13 +12040,13 @@
         <v>20</v>
       </c>
       <c r="D74" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F74" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -12047,13 +12054,13 @@
         <v>30</v>
       </c>
       <c r="D75" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F75" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -12064,13 +12071,13 @@
         <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F77" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -12081,12 +12088,12 @@
         <v>17</v>
       </c>
       <c r="F78" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B80" t="s">
         <v>18</v>
@@ -12095,7 +12102,7 @@
         <v>19</v>
       </c>
       <c r="D80" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>16</v>
@@ -12109,7 +12116,7 @@
         <v>20</v>
       </c>
       <c r="D81" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>16</v>
@@ -12123,13 +12130,13 @@
         <v>30</v>
       </c>
       <c r="D82" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F82" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -12151,18 +12158,18 @@
         <v>38</v>
       </c>
       <c r="D84" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F84" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B86" t="s">
         <v>18</v>
@@ -12171,7 +12178,7 @@
         <v>19</v>
       </c>
       <c r="D86" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>16</v>
@@ -12185,7 +12192,7 @@
         <v>20</v>
       </c>
       <c r="D87" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>16</v>
@@ -12199,7 +12206,7 @@
         <v>30</v>
       </c>
       <c r="D88" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>16</v>
@@ -12227,18 +12234,18 @@
         <v>38</v>
       </c>
       <c r="D90" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F90" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B92" t="s">
         <v>18</v>
@@ -12247,13 +12254,13 @@
         <v>19</v>
       </c>
       <c r="D92" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F92" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -12267,7 +12274,7 @@
         <v>16</v>
       </c>
       <c r="F93" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -12275,7 +12282,7 @@
         <v>30</v>
       </c>
       <c r="D94" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>16</v>
@@ -12329,7 +12336,7 @@
         <v>16</v>
       </c>
       <c r="F98" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -12337,13 +12344,13 @@
         <v>20</v>
       </c>
       <c r="D99" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F99" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -12357,7 +12364,7 @@
         <v>16</v>
       </c>
       <c r="F100" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -12365,7 +12372,7 @@
         <v>31</v>
       </c>
       <c r="D101" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>16</v>
@@ -12379,13 +12386,13 @@
         <v>38</v>
       </c>
       <c r="D102" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F102" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -12413,13 +12420,13 @@
         <v>409</v>
       </c>
       <c r="D105" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F105" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -12441,13 +12448,13 @@
         <v>31</v>
       </c>
       <c r="D107" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F107" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -12549,13 +12556,13 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -12563,13 +12570,13 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -12611,7 +12618,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -12625,13 +12632,13 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -12639,13 +12646,13 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -12659,7 +12666,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -12667,13 +12674,13 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -12687,7 +12694,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
@@ -12701,13 +12708,13 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -12715,13 +12722,13 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -12729,7 +12736,7 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>16</v>
@@ -12763,13 +12770,13 @@
         <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -12783,7 +12790,7 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>16</v>
@@ -12797,13 +12804,13 @@
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -12831,13 +12838,13 @@
         <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -12845,18 +12852,18 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>434</v>
+        <v>1026</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -12865,7 +12872,7 @@
         <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>16</v>
@@ -12879,7 +12886,7 @@
         <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>17</v>
@@ -12919,13 +12926,13 @@
         <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -12933,13 +12940,13 @@
         <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -12953,7 +12960,7 @@
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -12961,13 +12968,13 @@
         <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -12975,13 +12982,13 @@
         <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -12995,7 +13002,7 @@
         <v>17</v>
       </c>
       <c r="F38" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -13009,13 +13016,13 @@
         <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F40" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -13029,13 +13036,13 @@
         <v>22</v>
       </c>
       <c r="D42" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -13043,13 +13050,13 @@
         <v>23</v>
       </c>
       <c r="D43" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -13063,7 +13070,7 @@
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -13071,13 +13078,13 @@
         <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -13091,7 +13098,7 @@
         <v>17</v>
       </c>
       <c r="F46" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
   </sheetData>
@@ -13182,18 +13189,18 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
@@ -13216,7 +13223,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>17</v>
@@ -13236,13 +13243,13 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -13250,13 +13257,13 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -13264,13 +13271,13 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -13278,7 +13285,7 @@
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>372</v>
@@ -13298,13 +13305,13 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -13318,13 +13325,13 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -13338,12 +13345,12 @@
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -13352,13 +13359,13 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
+        <v>936</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
         <v>937</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -13366,7 +13373,7 @@
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>16</v>
@@ -13438,7 +13445,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -13447,7 +13454,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -13461,7 +13468,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>17</v>
@@ -13481,13 +13488,13 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -13512,7 +13519,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -13521,18 +13528,18 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -13541,13 +13548,13 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -13555,7 +13562,7 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
@@ -13569,18 +13576,18 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -13589,13 +13596,13 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -13603,7 +13610,7 @@
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>17</v>
@@ -13614,7 +13621,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -13623,13 +13630,13 @@
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -13637,13 +13644,13 @@
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -13651,7 +13658,7 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>17</v>
@@ -13662,7 +13669,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
@@ -13671,13 +13678,13 @@
         <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -13691,12 +13698,12 @@
         <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
@@ -13705,13 +13712,13 @@
         <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -13733,13 +13740,13 @@
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -13747,13 +13754,13 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -13778,13 +13785,13 @@
         <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
   </sheetData>
@@ -13845,13 +13852,13 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -13859,13 +13866,13 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -13873,7 +13880,7 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>17</v>
@@ -13893,13 +13900,13 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -13907,13 +13914,13 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -13933,12 +13940,12 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -13969,8 +13976,8 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E52" activeCellId="15" sqref="E6 E8 E11 E14 E18 E21 E24 E26 E29 E33 E36 E40 E43 E46 E48 E52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14005,7 +14012,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -14014,13 +14021,13 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -14028,7 +14035,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
@@ -14042,13 +14049,13 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -14056,13 +14063,13 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -14070,7 +14077,7 @@
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>17</v>
@@ -14081,7 +14088,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -14090,13 +14097,13 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -14116,7 +14123,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -14124,7 +14131,7 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>17</v>
@@ -14144,7 +14151,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
@@ -14158,7 +14165,7 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>17</v>
@@ -14178,13 +14185,13 @@
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -14192,13 +14199,13 @@
         <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -14206,7 +14213,7 @@
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>17</v>
@@ -14226,7 +14233,7 @@
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>16</v>
@@ -14240,18 +14247,18 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B23" t="s">
         <v>18</v>
@@ -14260,13 +14267,13 @@
         <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -14274,13 +14281,13 @@
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -14294,18 +14301,18 @@
         <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B28" t="s">
         <v>18</v>
@@ -14314,7 +14321,7 @@
         <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>16</v>
@@ -14328,13 +14335,13 @@
         <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -14348,7 +14355,7 @@
         <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
@@ -14362,7 +14369,7 @@
         <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>16</v>
@@ -14376,18 +14383,18 @@
         <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B35" t="s">
         <v>18</v>
@@ -14396,7 +14403,7 @@
         <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>16</v>
@@ -14410,7 +14417,7 @@
         <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>17</v>
@@ -14430,7 +14437,7 @@
         <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>16</v>
@@ -14444,13 +14451,13 @@
         <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -14458,18 +14465,18 @@
         <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F40" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B42" t="s">
         <v>18</v>
@@ -14478,13 +14485,13 @@
         <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -14492,7 +14499,7 @@
         <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>17</v>
@@ -14503,7 +14510,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B45" t="s">
         <v>18</v>
@@ -14512,13 +14519,13 @@
         <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -14526,7 +14533,7 @@
         <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>17</v>
@@ -14546,18 +14553,18 @@
         <v>23</v>
       </c>
       <c r="D48" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F48" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B50" t="s">
         <v>18</v>
@@ -14566,13 +14573,13 @@
         <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -14580,13 +14587,13 @@
         <v>20</v>
       </c>
       <c r="D51" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F51" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -14594,13 +14601,13 @@
         <v>30</v>
       </c>
       <c r="D52" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F52" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
   </sheetData>
@@ -14794,7 +14801,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -14803,18 +14810,18 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -14823,7 +14830,7 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
@@ -14837,13 +14844,13 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -14851,13 +14858,13 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -14865,13 +14872,13 @@
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -14879,7 +14886,7 @@
         <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>17</v>
@@ -14899,13 +14906,13 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -14913,7 +14920,7 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>17</v>
@@ -14933,13 +14940,13 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -14947,7 +14954,7 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>17</v>
@@ -14967,7 +14974,7 @@
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>16</v>
@@ -14981,13 +14988,13 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -15001,13 +15008,13 @@
         <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -15015,7 +15022,7 @@
         <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>17</v>
@@ -15035,13 +15042,13 @@
         <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -15049,13 +15056,13 @@
         <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -15069,13 +15076,13 @@
         <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -15083,7 +15090,7 @@
         <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>17</v>
@@ -15094,7 +15101,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>434</v>
+        <v>1026</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -15103,7 +15110,7 @@
         <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>16</v>
@@ -15117,13 +15124,13 @@
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -15151,7 +15158,7 @@
         <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>16</v>
@@ -15165,13 +15172,13 @@
         <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -15179,13 +15186,13 @@
         <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -15193,18 +15200,18 @@
         <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B37" t="s">
         <v>45</v>
@@ -15213,7 +15220,7 @@
         <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>16</v>
@@ -15227,7 +15234,7 @@
         <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>16</v>
@@ -15241,13 +15248,13 @@
         <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -15255,7 +15262,7 @@
         <v>31</v>
       </c>
       <c r="D40" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>16</v>
@@ -15269,13 +15276,13 @@
         <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F41" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -15289,13 +15296,13 @@
         <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -15303,13 +15310,13 @@
         <v>23</v>
       </c>
       <c r="D44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -15329,7 +15336,7 @@
         <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -15337,13 +15344,13 @@
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -15351,7 +15358,7 @@
         <v>30</v>
       </c>
       <c r="D48" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>17</v>
@@ -15371,13 +15378,13 @@
         <v>23</v>
       </c>
       <c r="D50" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F50" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -15391,7 +15398,7 @@
         <v>23</v>
       </c>
       <c r="D52" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>17</v>
@@ -15417,7 +15424,7 @@
         <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -15425,13 +15432,13 @@
         <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F55" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -15445,13 +15452,13 @@
         <v>22</v>
       </c>
       <c r="D57" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -15459,13 +15466,13 @@
         <v>23</v>
       </c>
       <c r="D58" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -15473,13 +15480,13 @@
         <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -15490,7 +15497,7 @@
         <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>16</v>
@@ -15501,7 +15508,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B63" t="s">
         <v>18</v>
@@ -15510,7 +15517,7 @@
         <v>19</v>
       </c>
       <c r="D63" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>16</v>
@@ -15524,13 +15531,13 @@
         <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F64" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -15538,7 +15545,7 @@
         <v>30</v>
       </c>
       <c r="D65" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>17</v>
@@ -15558,13 +15565,13 @@
         <v>19</v>
       </c>
       <c r="D67" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F67" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -15572,7 +15579,7 @@
         <v>20</v>
       </c>
       <c r="D68" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>17</v>
@@ -15592,13 +15599,13 @@
         <v>23</v>
       </c>
       <c r="D70" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F70" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
   </sheetData>
@@ -15613,10 +15620,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" activeCellId="5" sqref="E2 E6 E12 E16 E18 E20"/>
+      <selection activeCell="E22" activeCellId="6" sqref="E2 E6 E12 E16 E18 E20 E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15651,7 +15658,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -15660,7 +15667,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>17</v>
@@ -15680,13 +15687,13 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -15694,13 +15701,13 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -15708,13 +15715,13 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -15728,13 +15735,13 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
         <v>1012</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -15742,13 +15749,13 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>1014</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -15756,13 +15763,13 @@
         <v>30</v>
       </c>
       <c r="D10" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
         <v>1016</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -15770,13 +15777,13 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
         <v>1018</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -15784,7 +15791,7 @@
         <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>17</v>
@@ -15804,13 +15811,13 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -15818,7 +15825,7 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>16</v>
@@ -15832,13 +15839,13 @@
         <v>19</v>
       </c>
       <c r="D16" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
         <v>1024</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -15852,7 +15859,7 @@
         <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>17</v>
@@ -15872,13 +15879,33 @@
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F20" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -15894,7 +15921,7 @@
   </sheetPr>
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -16359,7 +16386,7 @@
         <v>2023</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -16368,11 +16395,11 @@
         <v>8</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -16381,7 +16408,7 @@
       </c>
       <c r="B23" s="2">
         <f>SUM(B2:B22)</f>
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C23" s="2">
         <f>SUM(C2:C22)</f>
@@ -16393,11 +16420,11 @@
       </c>
       <c r="E23" s="2">
         <f>SUM(E2:E22)</f>
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" ref="F23:F24" si="1">(D23-E23)/D23</f>
-        <v>0.66534391534391535</v>
+        <v>0.66402116402116407</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -16406,7 +16433,7 @@
       </c>
       <c r="B24" s="2">
         <f>AVERAGE(B2:B22)</f>
-        <v>15.095238095238095</v>
+        <v>15.142857142857142</v>
       </c>
       <c r="C24" s="2">
         <f>AVERAGE(C2:C22)</f>
@@ -16418,11 +16445,11 @@
       </c>
       <c r="E24" s="2">
         <f>AVERAGE(E2:E22)</f>
-        <v>12.047619047619047</v>
+        <v>12.095238095238095</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="1"/>
-        <v>0.66534391534391535</v>
+        <v>0.66402116402116407</v>
       </c>
     </row>
   </sheetData>
@@ -20500,8 +20527,8 @@
   </sheetPr>
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A64" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21060,7 +21087,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>434</v>
+        <v>1026</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
@@ -21075,7 +21102,7 @@
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -21103,7 +21130,7 @@
         <v>17</v>
       </c>
       <c r="F46" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -21123,7 +21150,7 @@
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -21131,13 +21158,13 @@
         <v>23</v>
       </c>
       <c r="D49" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -21151,7 +21178,7 @@
         <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -21165,7 +21192,7 @@
         <v>16</v>
       </c>
       <c r="F51" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -21179,7 +21206,7 @@
         <v>17</v>
       </c>
       <c r="F52" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -21207,7 +21234,7 @@
         <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>16</v>
@@ -21221,7 +21248,7 @@
         <v>30</v>
       </c>
       <c r="D56" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>16</v>
@@ -21235,7 +21262,7 @@
         <v>31</v>
       </c>
       <c r="D57" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>16</v>
@@ -21275,7 +21302,7 @@
         <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -21289,7 +21316,7 @@
         <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -21303,7 +21330,7 @@
         <v>16</v>
       </c>
       <c r="F62" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -21317,7 +21344,7 @@
         <v>16</v>
       </c>
       <c r="F63" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -21325,13 +21352,13 @@
         <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F64" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -21345,7 +21372,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -21359,7 +21386,7 @@
         <v>19</v>
       </c>
       <c r="D67" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>16</v>
@@ -21373,7 +21400,7 @@
         <v>20</v>
       </c>
       <c r="D68" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>16</v>
@@ -21407,7 +21434,7 @@
         <v>16</v>
       </c>
       <c r="F70" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -21421,7 +21448,7 @@
         <v>16</v>
       </c>
       <c r="F71" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -21469,7 +21496,7 @@
         <v>16</v>
       </c>
       <c r="F75" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -21483,7 +21510,7 @@
         <v>17</v>
       </c>
       <c r="F76" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -21503,7 +21530,7 @@
         <v>16</v>
       </c>
       <c r="F78" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -21511,13 +21538,13 @@
         <v>23</v>
       </c>
       <c r="D79" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F79" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -21531,7 +21558,7 @@
         <v>16</v>
       </c>
       <c r="F80" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -21545,7 +21572,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -21556,29 +21583,29 @@
         <v>18</v>
       </c>
       <c r="D83" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F83" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F84" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B86" t="s">
         <v>18</v>
@@ -21587,7 +21614,7 @@
         <v>19</v>
       </c>
       <c r="D86" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>16</v>
@@ -21601,7 +21628,7 @@
         <v>20</v>
       </c>
       <c r="D87" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>16</v>
@@ -21635,7 +21662,7 @@
         <v>16</v>
       </c>
       <c r="F89" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -21669,7 +21696,7 @@
         <v>16</v>
       </c>
       <c r="F92" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -21683,7 +21710,7 @@
         <v>17</v>
       </c>
       <c r="F93" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -21703,7 +21730,7 @@
         <v>16</v>
       </c>
       <c r="F95" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -21717,7 +21744,7 @@
         <v>16</v>
       </c>
       <c r="F96" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="97" spans="3:6" x14ac:dyDescent="0.3">
@@ -21731,7 +21758,7 @@
         <v>17</v>
       </c>
       <c r="F97" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -21793,13 +21820,13 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>477</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -21813,7 +21840,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -21821,13 +21848,13 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -21835,13 +21862,13 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -21855,7 +21882,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -21869,7 +21896,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -21883,7 +21910,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -21897,7 +21924,7 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
@@ -21917,7 +21944,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -21945,7 +21972,7 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
@@ -21965,7 +21992,7 @@
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -21993,7 +22020,7 @@
         <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>17</v>
@@ -22013,7 +22040,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>17</v>
@@ -22058,7 +22085,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>434</v>
+        <v>1026</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -22121,7 +22148,7 @@
         <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -22135,7 +22162,7 @@
         <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -22149,7 +22176,7 @@
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -22163,7 +22190,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -22183,7 +22210,7 @@
         <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -22191,13 +22218,13 @@
         <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -22211,13 +22238,13 @@
         <v>22</v>
       </c>
       <c r="D37" t="s">
+        <v>495</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" t="s">
         <v>496</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -22259,7 +22286,7 @@
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -22273,7 +22300,7 @@
         <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -22287,12 +22314,12 @@
         <v>17</v>
       </c>
       <c r="F42" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B44" t="s">
         <v>18</v>
@@ -22301,13 +22328,13 @@
         <v>20</v>
       </c>
       <c r="D44" t="s">
+        <v>501</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" t="s">
         <v>502</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -22335,7 +22362,7 @@
         <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -22349,7 +22376,7 @@
         <v>17</v>
       </c>
       <c r="F47" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -22383,7 +22410,7 @@
         <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -22439,13 +22466,13 @@
         <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -22467,13 +22494,13 @@
         <v>30</v>
       </c>
       <c r="D57" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F57" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -22487,13 +22514,13 @@
         <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -22501,13 +22528,13 @@
         <v>23</v>
       </c>
       <c r="D60" t="s">
+        <v>509</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" t="s">
         <v>510</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -22521,12 +22548,12 @@
         <v>17</v>
       </c>
       <c r="F61" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B63" t="s">
         <v>18</v>
@@ -22574,7 +22601,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B67" t="s">
         <v>18</v>
@@ -22583,7 +22610,7 @@
         <v>19</v>
       </c>
       <c r="D67" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>16</v>
@@ -22597,7 +22624,7 @@
         <v>20</v>
       </c>
       <c r="D68" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>16</v>
@@ -22650,7 +22677,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B73" t="s">
         <v>18</v>
@@ -22665,7 +22692,7 @@
         <v>16</v>
       </c>
       <c r="F73" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -22679,7 +22706,7 @@
         <v>17</v>
       </c>
       <c r="F74" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -22699,7 +22726,7 @@
         <v>16</v>
       </c>
       <c r="F76" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -22713,7 +22740,7 @@
         <v>16</v>
       </c>
       <c r="F77" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -22727,7 +22754,7 @@
         <v>17</v>
       </c>
       <c r="F78" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -22789,7 +22816,7 @@
         <v>17</v>
       </c>
       <c r="F83" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -22850,13 +22877,13 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -22864,7 +22891,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
@@ -22878,13 +22905,13 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -22898,7 +22925,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -22906,13 +22933,13 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -22926,7 +22953,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -22940,7 +22967,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -22954,7 +22981,7 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>17</v>
@@ -22974,13 +23001,13 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -23000,7 +23027,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -23042,7 +23069,7 @@
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>16</v>
@@ -23062,12 +23089,12 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>434</v>
+        <v>1026</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -23082,7 +23109,7 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -23090,7 +23117,7 @@
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>17</v>
@@ -23116,7 +23143,7 @@
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -23124,7 +23151,7 @@
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>16</v>
@@ -23138,13 +23165,13 @@
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -23158,7 +23185,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -23172,7 +23199,7 @@
         <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>16</v>
@@ -23192,7 +23219,7 @@
         <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -23200,13 +23227,13 @@
         <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -23220,7 +23247,7 @@
         <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -23234,7 +23261,7 @@
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -23248,7 +23275,7 @@
         <v>17</v>
       </c>
       <c r="F34" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -23268,7 +23295,7 @@
         <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -23282,7 +23309,7 @@
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -23338,13 +23365,13 @@
         <v>22</v>
       </c>
       <c r="D42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -23352,13 +23379,13 @@
         <v>23</v>
       </c>
       <c r="D43" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -23372,7 +23399,7 @@
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -23386,7 +23413,7 @@
         <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -23400,7 +23427,7 @@
         <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -23414,7 +23441,7 @@
         <v>17</v>
       </c>
       <c r="F47" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -23425,24 +23452,24 @@
         <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -23456,7 +23483,7 @@
         <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>17</v>
@@ -23518,13 +23545,13 @@
         <v>31</v>
       </c>
       <c r="D57" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -23538,7 +23565,7 @@
         <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -23552,13 +23579,13 @@
         <v>22</v>
       </c>
       <c r="D60" t="s">
+        <v>562</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" t="s">
         <v>563</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -23572,7 +23599,7 @@
         <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -23586,7 +23613,7 @@
         <v>16</v>
       </c>
       <c r="F62" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -23594,13 +23621,13 @@
         <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F63" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -23608,13 +23635,13 @@
         <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F64" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -23628,7 +23655,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -23639,7 +23666,7 @@
         <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>16</v>
@@ -23650,13 +23677,13 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F68" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -23670,7 +23697,7 @@
         <v>20</v>
       </c>
       <c r="D70" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>16</v>
@@ -23684,7 +23711,7 @@
         <v>30</v>
       </c>
       <c r="D71" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>16</v>
@@ -23704,7 +23731,7 @@
         <v>16</v>
       </c>
       <c r="F72" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -23712,13 +23739,13 @@
         <v>38</v>
       </c>
       <c r="D73" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F73" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -23738,7 +23765,7 @@
         <v>16</v>
       </c>
       <c r="F75" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -23794,12 +23821,12 @@
         <v>16</v>
       </c>
       <c r="F79" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B81" t="s">
         <v>18</v>
@@ -23822,7 +23849,7 @@
         <v>30</v>
       </c>
       <c r="D82" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>16</v>
@@ -23836,13 +23863,13 @@
         <v>31</v>
       </c>
       <c r="D83" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F83" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -23870,7 +23897,7 @@
         <v>19</v>
       </c>
       <c r="D86" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>16</v>
@@ -23904,7 +23931,7 @@
         <v>17</v>
       </c>
       <c r="F88" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">

--- a/Tennis/ATP Tour/Andy Murray.xlsx
+++ b/Tennis/ATP Tour/Andy Murray.xlsx
@@ -15922,7 +15922,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/ATP Tour/Andy Murray.xlsx
+++ b/Tennis/ATP Tour/Andy Murray.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11439" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97CB6BA2-1F68-4316-A44F-C9546D1C6612}"/>
+  <xr:revisionPtr revIDLastSave="11462" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D086D5EB-BCBC-4999-864F-6547A171F3ED}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4826" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4848" uniqueCount="1032">
   <si>
     <t>ROUND</t>
   </si>
@@ -3140,6 +3140,18 @@
   </si>
   <si>
     <t>Andrea Vavassori (ITALY)</t>
+  </si>
+  <si>
+    <t>Laurent Lokoli (FRANCE)</t>
+  </si>
+  <si>
+    <t>AIX EN PROVENCE CHALLENGER</t>
+  </si>
+  <si>
+    <t>Luca Van Assche (FRANCE)</t>
+  </si>
+  <si>
+    <t>Harold Mayot (FRANCE)</t>
   </si>
 </sst>
 </file>
@@ -3689,7 +3701,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4446,7 +4458,7 @@
                   <c:v>0.34482758620689657</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.125</c:v>
+                  <c:v>0.46153846153846156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8437,8 +8449,8 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11089,7 +11101,7 @@
   </sheetPr>
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -15620,7 +15632,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E22" activeCellId="6" sqref="E2 E6 E12 E16 E18 E20 E22"/>
@@ -15628,7 +15640,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
@@ -15906,6 +15918,86 @@
       </c>
       <c r="F22" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s">
+        <v>981</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -15922,7 +16014,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16386,20 +16478,20 @@
         <v>2023</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>7</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.46153846153846156</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -16408,7 +16500,7 @@
       </c>
       <c r="B23" s="2">
         <f>SUM(B2:B22)</f>
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C23" s="2">
         <f>SUM(C2:C22)</f>
@@ -16416,7 +16508,7 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D2:D22)</f>
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E2:E22)</f>
@@ -16424,7 +16516,7 @@
       </c>
       <c r="F23" s="3">
         <f t="shared" ref="F23:F24" si="1">(D23-E23)/D23</f>
-        <v>0.66402116402116407</v>
+        <v>0.66622864651773983</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -16433,7 +16525,7 @@
       </c>
       <c r="B24" s="2">
         <f>AVERAGE(B2:B22)</f>
-        <v>15.142857142857142</v>
+        <v>15.19047619047619</v>
       </c>
       <c r="C24" s="2">
         <f>AVERAGE(C2:C22)</f>
@@ -16441,7 +16533,7 @@
       </c>
       <c r="D24" s="2">
         <f>AVERAGE(D2:D22)</f>
-        <v>36</v>
+        <v>36.238095238095241</v>
       </c>
       <c r="E24" s="2">
         <f>AVERAGE(E2:E22)</f>
@@ -16449,7 +16541,7 @@
       </c>
       <c r="F24" s="3">
         <f t="shared" si="1"/>
-        <v>0.66402116402116407</v>
+        <v>0.66622864651773983</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Andy Murray.xlsx
+++ b/Tennis/ATP Tour/Andy Murray.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11462" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D086D5EB-BCBC-4999-864F-6547A171F3ED}"/>
+  <xr:revisionPtr revIDLastSave="11470" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B398565E-E91B-483D-B686-88D869C26A48}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4848" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4854" uniqueCount="1032">
   <si>
     <t>ROUND</t>
   </si>
@@ -3875,7 +3875,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4458,7 +4458,7 @@
                   <c:v>0.34482758620689657</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.46153846153846156</c:v>
+                  <c:v>0.38461538461538464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15632,10 +15632,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" activeCellId="6" sqref="E2 E6 E12 E16 E18 E20 E22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A30" activeCellId="8" sqref="A2 A4 A8 A14 A18 A20 A22 A24 A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16000,6 +16000,26 @@
         <v>683</v>
       </c>
     </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>179</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" t="s">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -16014,7 +16034,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16478,7 +16498,7 @@
         <v>2023</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -16487,11 +16507,11 @@
         <v>13</v>
       </c>
       <c r="E22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="0"/>
-        <v>0.46153846153846156</v>
+        <v>0.38461538461538464</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -16500,7 +16520,7 @@
       </c>
       <c r="B23" s="2">
         <f>SUM(B2:B22)</f>
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C23" s="2">
         <f>SUM(C2:C22)</f>
@@ -16512,11 +16532,11 @@
       </c>
       <c r="E23" s="2">
         <f>SUM(E2:E22)</f>
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" ref="F23:F24" si="1">(D23-E23)/D23</f>
-        <v>0.66622864651773983</v>
+        <v>0.66491458607095921</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -16525,7 +16545,7 @@
       </c>
       <c r="B24" s="2">
         <f>AVERAGE(B2:B22)</f>
-        <v>15.19047619047619</v>
+        <v>15.238095238095237</v>
       </c>
       <c r="C24" s="2">
         <f>AVERAGE(C2:C22)</f>
@@ -16537,11 +16557,11 @@
       </c>
       <c r="E24" s="2">
         <f>AVERAGE(E2:E22)</f>
-        <v>12.095238095238095</v>
+        <v>12.142857142857142</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="1"/>
-        <v>0.66622864651773983</v>
+        <v>0.66491458607095932</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Andy Murray.xlsx
+++ b/Tennis/ATP Tour/Andy Murray.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11470" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B398565E-E91B-483D-B686-88D869C26A48}"/>
+  <xr:revisionPtr revIDLastSave="11481" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6BA1C75-4E6B-4D0A-A4F9-0C97D9F703B8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" firstSheet="15" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="9" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4854" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4860" uniqueCount="1033">
   <si>
     <t>ROUND</t>
   </si>
@@ -3152,6 +3152,9 @@
   </si>
   <si>
     <t>Harold Mayot (FRANCE)</t>
+  </si>
+  <si>
+    <t>BORDEAUX CHALLENGER</t>
   </si>
 </sst>
 </file>
@@ -3875,7 +3878,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4458,7 +4461,7 @@
                   <c:v>0.34482758620689657</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.38461538461538464</c:v>
+                  <c:v>0.30769230769230771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15632,10 +15635,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A30" activeCellId="8" sqref="A2 A4 A8 A14 A18 A20 A22 A24 A30"/>
+      <selection activeCell="A32" activeCellId="9" sqref="A2 A4 A8 A14 A18 A20 A22 A24 A30 A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16018,6 +16021,26 @@
       </c>
       <c r="F30" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
+        <v>576</v>
       </c>
     </row>
   </sheetData>
@@ -16498,7 +16521,7 @@
         <v>2023</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -16507,11 +16530,11 @@
         <v>13</v>
       </c>
       <c r="E22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="0"/>
-        <v>0.38461538461538464</v>
+        <v>0.30769230769230771</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -16520,7 +16543,7 @@
       </c>
       <c r="B23" s="2">
         <f>SUM(B2:B22)</f>
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C23" s="2">
         <f>SUM(C2:C22)</f>
@@ -16532,11 +16555,11 @@
       </c>
       <c r="E23" s="2">
         <f>SUM(E2:E22)</f>
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" ref="F23:F24" si="1">(D23-E23)/D23</f>
-        <v>0.66491458607095921</v>
+        <v>0.66360052562417871</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -16545,7 +16568,7 @@
       </c>
       <c r="B24" s="2">
         <f>AVERAGE(B2:B22)</f>
-        <v>15.238095238095237</v>
+        <v>15.285714285714286</v>
       </c>
       <c r="C24" s="2">
         <f>AVERAGE(C2:C22)</f>
@@ -16557,11 +16580,11 @@
       </c>
       <c r="E24" s="2">
         <f>AVERAGE(E2:E22)</f>
-        <v>12.142857142857142</v>
+        <v>12.19047619047619</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="1"/>
-        <v>0.66491458607095932</v>
+        <v>0.66360052562417871</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Andy Murray.xlsx
+++ b/Tennis/ATP Tour/Andy Murray.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11481" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6BA1C75-4E6B-4D0A-A4F9-0C97D9F703B8}"/>
+  <xr:revisionPtr revIDLastSave="11503" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23229614-327C-4A81-910C-B24FD1B0DC22}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" firstSheet="15" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="9" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4860" uniqueCount="1033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4882" uniqueCount="1036">
   <si>
     <t>ROUND</t>
   </si>
@@ -3155,6 +3155,15 @@
   </si>
   <si>
     <t>BORDEAUX CHALLENGER</t>
+  </si>
+  <si>
+    <t>Hyeon Chung (SOUTH KOREA)</t>
+  </si>
+  <si>
+    <t>Bu Yunchaokete (CHINA)</t>
+  </si>
+  <si>
+    <t>Jason Kubler (AUSTRALIA)</t>
   </si>
 </sst>
 </file>
@@ -3704,7 +3713,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4461,7 +4470,7 @@
                   <c:v>0.34482758620689657</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.30769230769230771</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15635,10 +15644,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A32" activeCellId="9" sqref="A2 A4 A8 A14 A18 A20 A22 A24 A30 A32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E32" activeCellId="8" sqref="E2 E6 E12 E16 E18 E20 E22 E30 E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16043,6 +16052,86 @@
         <v>576</v>
       </c>
     </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="9"/>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="9"/>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="9"/>
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" t="s">
+        <v>931</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="9"/>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>991</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -16056,8 +16145,8 @@
   </sheetPr>
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16521,20 +16610,20 @@
         <v>2023</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E22">
         <v>9</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="0"/>
-        <v>0.30769230769230771</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -16543,7 +16632,7 @@
       </c>
       <c r="B23" s="2">
         <f>SUM(B2:B22)</f>
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C23" s="2">
         <f>SUM(C2:C22)</f>
@@ -16551,7 +16640,7 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D2:D22)</f>
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E2:E22)</f>
@@ -16559,7 +16648,7 @@
       </c>
       <c r="F23" s="3">
         <f t="shared" ref="F23:F24" si="1">(D23-E23)/D23</f>
-        <v>0.66360052562417871</v>
+        <v>0.66579634464751958</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -16568,7 +16657,7 @@
       </c>
       <c r="B24" s="2">
         <f>AVERAGE(B2:B22)</f>
-        <v>15.285714285714286</v>
+        <v>15.333333333333334</v>
       </c>
       <c r="C24" s="2">
         <f>AVERAGE(C2:C22)</f>
@@ -16576,7 +16665,7 @@
       </c>
       <c r="D24" s="2">
         <f>AVERAGE(D2:D22)</f>
-        <v>36.238095238095241</v>
+        <v>36.476190476190474</v>
       </c>
       <c r="E24" s="2">
         <f>AVERAGE(E2:E22)</f>
@@ -16584,7 +16673,7 @@
       </c>
       <c r="F24" s="3">
         <f t="shared" si="1"/>
-        <v>0.66360052562417871</v>
+        <v>0.66579634464751958</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Andy Murray.xlsx
+++ b/Tennis/ATP Tour/Andy Murray.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11503" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23229614-327C-4A81-910C-B24FD1B0DC22}"/>
+  <xr:revisionPtr revIDLastSave="11533" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{218DA2FC-8474-4993-A2FB-8F6962FAE8A2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4882" uniqueCount="1036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4910" uniqueCount="1042">
   <si>
     <t>ROUND</t>
   </si>
@@ -3164,6 +3164,24 @@
   </si>
   <si>
     <t>Jason Kubler (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>7-6(2) 7-5</t>
+  </si>
+  <si>
+    <t>Joris De Loore (BELGIUM)</t>
+  </si>
+  <si>
+    <t>Hugo Grenier (FRANCE)</t>
+  </si>
+  <si>
+    <t>Dominic Stricker (SWITZERLAND)</t>
+  </si>
+  <si>
+    <t>Nuno Borges (PORTUGAL)</t>
+  </si>
+  <si>
+    <t>Arthur Cazaux (FRANCE)</t>
   </si>
 </sst>
 </file>
@@ -3713,7 +3731,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3887,7 +3905,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4470,7 +4488,7 @@
                   <c:v>0.34482758620689657</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.5</c:v>
+                  <c:v>0.56521739130434778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14001,7 +14019,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A13" sqref="A13:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15644,10 +15662,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E32" activeCellId="8" sqref="E2 E6 E12 E16 E18 E20 E22 E30 E32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E46" activeCellId="9" sqref="E2 E6 E12 E16 E18 E20 E22 E30 E32 E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16132,6 +16150,102 @@
         <v>21</v>
       </c>
     </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>212</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" t="s">
+        <v>946</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -16146,7 +16260,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16610,20 +16724,20 @@
         <v>2023</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.56521739130434778</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -16632,7 +16746,7 @@
       </c>
       <c r="B23" s="2">
         <f>SUM(B2:B22)</f>
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C23" s="2">
         <f>SUM(C2:C22)</f>
@@ -16640,15 +16754,15 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D2:D22)</f>
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E2:E22)</f>
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" ref="F23:F24" si="1">(D23-E23)/D23</f>
-        <v>0.66579634464751958</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -16657,7 +16771,7 @@
       </c>
       <c r="B24" s="2">
         <f>AVERAGE(B2:B22)</f>
-        <v>15.333333333333334</v>
+        <v>15.428571428571429</v>
       </c>
       <c r="C24" s="2">
         <f>AVERAGE(C2:C22)</f>
@@ -16665,15 +16779,15 @@
       </c>
       <c r="D24" s="2">
         <f>AVERAGE(D2:D22)</f>
-        <v>36.476190476190474</v>
+        <v>36.714285714285715</v>
       </c>
       <c r="E24" s="2">
         <f>AVERAGE(E2:E22)</f>
-        <v>12.19047619047619</v>
+        <v>12.238095238095237</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="1"/>
-        <v>0.66579634464751958</v>
+        <v>0.66666666666666674</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Andy Murray.xlsx
+++ b/Tennis/ATP Tour/Andy Murray.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11533" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{218DA2FC-8474-4993-A2FB-8F6962FAE8A2}"/>
+  <xr:revisionPtr revIDLastSave="11544" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70D16F1B-B7E5-4829-AB26-E7FC74B4565F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="9" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4910" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4920" uniqueCount="1045">
   <si>
     <t>ROUND</t>
   </si>
@@ -3182,6 +3182,15 @@
   </si>
   <si>
     <t>Arthur Cazaux (FRANCE)</t>
+  </si>
+  <si>
+    <t>Ryan Peniston (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>6-3 6-0 6-1</t>
+  </si>
+  <si>
+    <t>7-6(3) 6-7(2) 4-6 7-6(3) 6-4</t>
   </si>
 </sst>
 </file>
@@ -3731,7 +3740,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3905,7 +3914,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4488,7 +4497,7 @@
                   <c:v>0.34482758620689657</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.56521739130434778</c:v>
+                  <c:v>0.54166666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15662,10 +15671,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E46" activeCellId="9" sqref="E2 E6 E12 E16 E18 E20 E22 E30 E32 E46"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E49" activeCellId="10" sqref="E2 E6 E12 E16 E18 E20 E22 E30 E32 E46 E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16246,6 +16255,40 @@
         <v>76</v>
       </c>
     </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" t="s">
+        <v>968</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1044</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -16259,8 +16302,8 @@
   </sheetPr>
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16724,20 +16767,20 @@
         <v>2023</v>
       </c>
       <c r="B22">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="0"/>
-        <v>0.56521739130434778</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -16746,7 +16789,7 @@
       </c>
       <c r="B23" s="2">
         <f>SUM(B2:B22)</f>
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C23" s="2">
         <f>SUM(C2:C22)</f>
@@ -16754,15 +16797,15 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D2:D22)</f>
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E2:E22)</f>
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" ref="F23:F24" si="1">(D23-E23)/D23</f>
-        <v>0.66666666666666663</v>
+        <v>0.66580310880829019</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -16771,7 +16814,7 @@
       </c>
       <c r="B24" s="2">
         <f>AVERAGE(B2:B22)</f>
-        <v>15.428571428571429</v>
+        <v>15.476190476190476</v>
       </c>
       <c r="C24" s="2">
         <f>AVERAGE(C2:C22)</f>
@@ -16779,15 +16822,15 @@
       </c>
       <c r="D24" s="2">
         <f>AVERAGE(D2:D22)</f>
-        <v>36.714285714285715</v>
+        <v>36.761904761904759</v>
       </c>
       <c r="E24" s="2">
         <f>AVERAGE(E2:E22)</f>
-        <v>12.238095238095237</v>
+        <v>12.285714285714286</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="1"/>
-        <v>0.66666666666666674</v>
+        <v>0.66580310880829019</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Andy Murray.xlsx
+++ b/Tennis/ATP Tour/Andy Murray.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11481" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6BA1C75-4E6B-4D0A-A4F9-0C97D9F703B8}"/>
+  <xr:revisionPtr revIDLastSave="11544" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70D16F1B-B7E5-4829-AB26-E7FC74B4565F}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" firstSheet="15" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="9" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4860" uniqueCount="1033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4920" uniqueCount="1045">
   <si>
     <t>ROUND</t>
   </si>
@@ -3155,6 +3155,42 @@
   </si>
   <si>
     <t>BORDEAUX CHALLENGER</t>
+  </si>
+  <si>
+    <t>Hyeon Chung (SOUTH KOREA)</t>
+  </si>
+  <si>
+    <t>Bu Yunchaokete (CHINA)</t>
+  </si>
+  <si>
+    <t>Jason Kubler (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>7-6(2) 7-5</t>
+  </si>
+  <si>
+    <t>Joris De Loore (BELGIUM)</t>
+  </si>
+  <si>
+    <t>Hugo Grenier (FRANCE)</t>
+  </si>
+  <si>
+    <t>Dominic Stricker (SWITZERLAND)</t>
+  </si>
+  <si>
+    <t>Nuno Borges (PORTUGAL)</t>
+  </si>
+  <si>
+    <t>Arthur Cazaux (FRANCE)</t>
+  </si>
+  <si>
+    <t>Ryan Peniston (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>6-3 6-0 6-1</t>
+  </si>
+  <si>
+    <t>7-6(3) 6-7(2) 4-6 7-6(3) 6-4</t>
   </si>
 </sst>
 </file>
@@ -3704,7 +3740,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3878,7 +3914,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4461,7 +4497,7 @@
                   <c:v>0.34482758620689657</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.30769230769230771</c:v>
+                  <c:v>0.54166666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13992,7 +14028,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A13" sqref="A13:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15635,10 +15671,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A32" activeCellId="9" sqref="A2 A4 A8 A14 A18 A20 A22 A24 A30 A32"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E49" activeCellId="10" sqref="E2 E6 E12 E16 E18 E20 E22 E30 E32 E46 E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16041,6 +16077,216 @@
       </c>
       <c r="F32" t="s">
         <v>576</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="9"/>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="9"/>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="9"/>
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" t="s">
+        <v>931</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="9"/>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>991</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>212</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" t="s">
+        <v>946</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" t="s">
+        <v>968</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1044</v>
       </c>
     </row>
   </sheetData>
@@ -16521,20 +16767,20 @@
         <v>2023</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E22">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="0"/>
-        <v>0.30769230769230771</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -16543,7 +16789,7 @@
       </c>
       <c r="B23" s="2">
         <f>SUM(B2:B22)</f>
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C23" s="2">
         <f>SUM(C2:C22)</f>
@@ -16551,15 +16797,15 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D2:D22)</f>
-        <v>761</v>
+        <v>772</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E2:E22)</f>
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" ref="F23:F24" si="1">(D23-E23)/D23</f>
-        <v>0.66360052562417871</v>
+        <v>0.66580310880829019</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -16568,7 +16814,7 @@
       </c>
       <c r="B24" s="2">
         <f>AVERAGE(B2:B22)</f>
-        <v>15.285714285714286</v>
+        <v>15.476190476190476</v>
       </c>
       <c r="C24" s="2">
         <f>AVERAGE(C2:C22)</f>
@@ -16576,15 +16822,15 @@
       </c>
       <c r="D24" s="2">
         <f>AVERAGE(D2:D22)</f>
-        <v>36.238095238095241</v>
+        <v>36.761904761904759</v>
       </c>
       <c r="E24" s="2">
         <f>AVERAGE(E2:E22)</f>
-        <v>12.19047619047619</v>
+        <v>12.285714285714286</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="1"/>
-        <v>0.66360052562417871</v>
+        <v>0.66580310880829019</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Andy Murray.xlsx
+++ b/Tennis/ATP Tour/Andy Murray.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11544" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70D16F1B-B7E5-4829-AB26-E7FC74B4565F}"/>
+  <xr:revisionPtr revIDLastSave="11555" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E5AF0B8-A126-4DCF-B4F3-5737290AD32A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4920" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4930" uniqueCount="1048">
   <si>
     <t>ROUND</t>
   </si>
@@ -3191,6 +3191,15 @@
   </si>
   <si>
     <t>7-6(3) 6-7(2) 4-6 7-6(3) 6-4</t>
+  </si>
+  <si>
+    <t>CITI OPEN</t>
+  </si>
+  <si>
+    <t>Brandon Nakashima (USA)</t>
+  </si>
+  <si>
+    <t>6-7(2) 6-3 6-4</t>
   </si>
 </sst>
 </file>
@@ -3740,7 +3749,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3914,7 +3923,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4497,7 +4506,7 @@
                   <c:v>0.34482758620689657</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.54166666666666663</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15671,10 +15680,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E49" activeCellId="10" sqref="E2 E6 E12 E16 E18 E20 E22 E30 E32 E46 E49"/>
+      <selection activeCell="A51" activeCellId="14" sqref="A2 A4 A8 A14 A18 A20 A22 A24 A30 A32 A34 A40 A46 A48 A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16275,7 +16284,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>23</v>
       </c>
@@ -16287,6 +16296,40 @@
       </c>
       <c r="F49" t="s">
         <v>1044</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" t="s">
+        <v>998</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1047</v>
       </c>
     </row>
   </sheetData>
@@ -16767,20 +16810,20 @@
         <v>2023</v>
       </c>
       <c r="B22">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="0"/>
-        <v>0.54166666666666663</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -16789,7 +16832,7 @@
       </c>
       <c r="B23" s="2">
         <f>SUM(B2:B22)</f>
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C23" s="2">
         <f>SUM(C2:C22)</f>
@@ -16797,15 +16840,15 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D2:D22)</f>
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E2:E22)</f>
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" ref="F23:F24" si="1">(D23-E23)/D23</f>
-        <v>0.66580310880829019</v>
+        <v>0.66494178525226388</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -16814,7 +16857,7 @@
       </c>
       <c r="B24" s="2">
         <f>AVERAGE(B2:B22)</f>
-        <v>15.476190476190476</v>
+        <v>15.523809523809524</v>
       </c>
       <c r="C24" s="2">
         <f>AVERAGE(C2:C22)</f>
@@ -16822,15 +16865,15 @@
       </c>
       <c r="D24" s="2">
         <f>AVERAGE(D2:D22)</f>
-        <v>36.761904761904759</v>
+        <v>36.80952380952381</v>
       </c>
       <c r="E24" s="2">
         <f>AVERAGE(E2:E22)</f>
-        <v>12.285714285714286</v>
+        <v>12.333333333333334</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="1"/>
-        <v>0.66580310880829019</v>
+        <v>0.66494178525226388</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Andy Murray.xlsx
+++ b/Tennis/ATP Tour/Andy Murray.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11555" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E5AF0B8-A126-4DCF-B4F3-5737290AD32A}"/>
+  <xr:revisionPtr revIDLastSave="11571" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F7A70A1-A45F-4AB3-A169-2879E6F12A9D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4930" uniqueCount="1048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4944" uniqueCount="1050">
   <si>
     <t>ROUND</t>
   </si>
@@ -3200,6 +3200,12 @@
   </si>
   <si>
     <t>6-7(2) 6-3 6-4</t>
+  </si>
+  <si>
+    <t>7-6(3) 6-0</t>
+  </si>
+  <si>
+    <t>7-6(2) 3-6 7-5</t>
   </si>
 </sst>
 </file>
@@ -3749,7 +3755,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4506,7 +4512,7 @@
                   <c:v>0.34482758620689657</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.52</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15680,19 +15686,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A51" activeCellId="14" sqref="A2 A4 A8 A14 A18 A20 A22 A24 A30 A32 A34 A40 A46 A48 A51"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E52" activeCellId="11" sqref="E2 E6 E12 E16 E18 E20 E22 E30 E32 E46 E49 E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16330,6 +16336,54 @@
       </c>
       <c r="F52" t="s">
         <v>1047</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" t="s">
+        <v>980</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="F56" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -16346,7 +16400,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16810,20 +16864,20 @@
         <v>2023</v>
       </c>
       <c r="B22">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>12</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="0"/>
-        <v>0.52</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -16832,7 +16886,7 @@
       </c>
       <c r="B23" s="2">
         <f>SUM(B2:B22)</f>
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C23" s="2">
         <f>SUM(C2:C22)</f>
@@ -16840,7 +16894,7 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D2:D22)</f>
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E2:E22)</f>
@@ -16848,7 +16902,7 @@
       </c>
       <c r="F23" s="3">
         <f t="shared" ref="F23:F24" si="1">(D23-E23)/D23</f>
-        <v>0.66494178525226388</v>
+        <v>0.66580645161290319</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -16857,7 +16911,7 @@
       </c>
       <c r="B24" s="2">
         <f>AVERAGE(B2:B22)</f>
-        <v>15.523809523809524</v>
+        <v>15.571428571428571</v>
       </c>
       <c r="C24" s="2">
         <f>AVERAGE(C2:C22)</f>
@@ -16865,7 +16919,7 @@
       </c>
       <c r="D24" s="2">
         <f>AVERAGE(D2:D22)</f>
-        <v>36.80952380952381</v>
+        <v>36.904761904761905</v>
       </c>
       <c r="E24" s="2">
         <f>AVERAGE(E2:E22)</f>
@@ -16873,7 +16927,7 @@
       </c>
       <c r="F24" s="3">
         <f t="shared" si="1"/>
-        <v>0.66494178525226388</v>
+        <v>0.66580645161290319</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Andy Murray.xlsx
+++ b/Tennis/ATP Tour/Andy Murray.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11571" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F7A70A1-A45F-4AB3-A169-2879E6F12A9D}"/>
+  <xr:revisionPtr revIDLastSave="11582" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EF05837-C620-4A4D-93F8-92C18410C827}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4944" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4954" uniqueCount="1052">
   <si>
     <t>ROUND</t>
   </si>
@@ -3206,6 +3206,12 @@
   </si>
   <si>
     <t>7-6(2) 3-6 7-5</t>
+  </si>
+  <si>
+    <t>Corentin Moutet (FRANCE)</t>
+  </si>
+  <si>
+    <t>6-3 6-4 6-1</t>
   </si>
 </sst>
 </file>
@@ -3755,7 +3761,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3929,7 +3935,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4512,7 +4518,7 @@
                   <c:v>0.34482758620689657</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.55555555555555558</c:v>
+                  <c:v>0.5357142857142857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15686,10 +15692,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E52" activeCellId="11" sqref="E2 E6 E12 E16 E18 E20 E22 E30 E32 E46 E49 E52"/>
+      <selection activeCell="A58" activeCellId="16" sqref="A2 A4 A8 A14 A18 A20 A22 A24 A30 A32 A34 A40 A46 A48 A51 A54 A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16386,6 +16392,40 @@
         <v>371</v>
       </c>
     </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" t="s">
+        <v>573</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1051</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -16400,7 +16440,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16864,20 +16904,20 @@
         <v>2023</v>
       </c>
       <c r="B22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="0"/>
-        <v>0.55555555555555558</v>
+        <v>0.5357142857142857</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -16886,7 +16926,7 @@
       </c>
       <c r="B23" s="2">
         <f>SUM(B2:B22)</f>
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C23" s="2">
         <f>SUM(C2:C22)</f>
@@ -16894,15 +16934,15 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D2:D22)</f>
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E2:E22)</f>
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" ref="F23:F24" si="1">(D23-E23)/D23</f>
-        <v>0.66580645161290319</v>
+        <v>0.66494845360824739</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -16911,7 +16951,7 @@
       </c>
       <c r="B24" s="2">
         <f>AVERAGE(B2:B22)</f>
-        <v>15.571428571428571</v>
+        <v>15.619047619047619</v>
       </c>
       <c r="C24" s="2">
         <f>AVERAGE(C2:C22)</f>
@@ -16919,15 +16959,15 @@
       </c>
       <c r="D24" s="2">
         <f>AVERAGE(D2:D22)</f>
-        <v>36.904761904761905</v>
+        <v>36.952380952380949</v>
       </c>
       <c r="E24" s="2">
         <f>AVERAGE(E2:E22)</f>
-        <v>12.333333333333334</v>
+        <v>12.380952380952381</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="1"/>
-        <v>0.66580645161290319</v>
+        <v>0.66494845360824739</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Andy Murray.xlsx
+++ b/Tennis/ATP Tour/Andy Murray.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11582" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EF05837-C620-4A4D-93F8-92C18410C827}"/>
+  <xr:revisionPtr revIDLastSave="11598" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A9EF218-6FD3-4A24-99B3-EC3A1737120B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4954" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4970" uniqueCount="1054">
   <si>
     <t>ROUND</t>
   </si>
@@ -3212,6 +3212,12 @@
   </si>
   <si>
     <t>6-3 6-4 6-1</t>
+  </si>
+  <si>
+    <t>Ye Cong Mo (CHINA)</t>
+  </si>
+  <si>
+    <t>6-3 5-7 7-6(6)</t>
   </si>
 </sst>
 </file>
@@ -3761,7 +3767,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3935,7 +3941,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4518,7 +4524,7 @@
                   <c:v>0.34482758620689657</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.5357142857142857</c:v>
+                  <c:v>0.51724137931034486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6007,10 +6013,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -15692,10 +15694,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A58" activeCellId="16" sqref="A2 A4 A8 A14 A18 A20 A22 A24 A30 A32 A34 A40 A46 A48 A51 A54 A58"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E61" activeCellId="10" sqref="E4:E5 E8:E11 E14:E15 E24:E28 E34:E38 E40:E44 E48 E51 E54:E55 E58 E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16424,6 +16426,60 @@
       </c>
       <c r="F59" t="s">
         <v>1051</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>947</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" t="s">
+        <v>987</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>512</v>
+      </c>
+      <c r="B64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" t="s">
+        <v>946</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1053</v>
       </c>
     </row>
   </sheetData>
@@ -16904,20 +16960,20 @@
         <v>2023</v>
       </c>
       <c r="B22">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E22">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="0"/>
-        <v>0.5357142857142857</v>
+        <v>0.51724137931034486</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -16926,7 +16982,7 @@
       </c>
       <c r="B23" s="2">
         <f>SUM(B2:B22)</f>
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C23" s="2">
         <f>SUM(C2:C22)</f>
@@ -16934,15 +16990,15 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D2:D22)</f>
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E2:E22)</f>
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" ref="F23:F24" si="1">(D23-E23)/D23</f>
-        <v>0.66494845360824739</v>
+        <v>0.6640926640926641</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -16951,7 +17007,7 @@
       </c>
       <c r="B24" s="2">
         <f>AVERAGE(B2:B22)</f>
-        <v>15.619047619047619</v>
+        <v>15.714285714285714</v>
       </c>
       <c r="C24" s="2">
         <f>AVERAGE(C2:C22)</f>
@@ -16959,15 +17015,15 @@
       </c>
       <c r="D24" s="2">
         <f>AVERAGE(D2:D22)</f>
-        <v>36.952380952380949</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2">
         <f>AVERAGE(E2:E22)</f>
-        <v>12.380952380952381</v>
+        <v>12.428571428571429</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="1"/>
-        <v>0.66494845360824739</v>
+        <v>0.66409266409266399</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Andy Murray.xlsx
+++ b/Tennis/ATP Tour/Andy Murray.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11598" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A9EF218-6FD3-4A24-99B3-EC3A1737120B}"/>
+  <xr:revisionPtr revIDLastSave="11607" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E8BB438-560E-4AD5-9437-BF0592901280}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4970" uniqueCount="1054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4976" uniqueCount="1054">
   <si>
     <t>ROUND</t>
   </si>
@@ -3214,10 +3214,10 @@
     <t>6-3 6-4 6-1</t>
   </si>
   <si>
-    <t>Ye Cong Mo (CHINA)</t>
-  </si>
-  <si>
     <t>6-3 5-7 7-6(6)</t>
+  </si>
+  <si>
+    <t>Ye-Cong Mo (CHINA)</t>
   </si>
 </sst>
 </file>
@@ -3941,7 +3941,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4524,7 +4524,7 @@
                   <c:v>0.34482758620689657</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.51724137931034486</c:v>
+                  <c:v>0.48275862068965519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6013,6 +6013,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -15694,10 +15698,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E61" activeCellId="10" sqref="E4:E5 E8:E11 E14:E15 E24:E28 E34:E38 E40:E44 E48 E51 E54:E55 E58 E61"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16439,7 +16443,7 @@
         <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>16</v>
@@ -16479,7 +16483,27 @@
         <v>17</v>
       </c>
       <c r="F64" t="s">
-        <v>1053</v>
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>513</v>
+      </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" t="s">
+        <v>971</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -16960,7 +16984,7 @@
         <v>2023</v>
       </c>
       <c r="B22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -16969,11 +16993,11 @@
         <v>29</v>
       </c>
       <c r="E22">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="0"/>
-        <v>0.51724137931034486</v>
+        <v>0.48275862068965519</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -16982,7 +17006,7 @@
       </c>
       <c r="B23" s="2">
         <f>SUM(B2:B22)</f>
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C23" s="2">
         <f>SUM(C2:C22)</f>
@@ -16994,11 +17018,11 @@
       </c>
       <c r="E23" s="2">
         <f>SUM(E2:E22)</f>
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" ref="F23:F24" si="1">(D23-E23)/D23</f>
-        <v>0.6640926640926641</v>
+        <v>0.66280566280566278</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -17007,7 +17031,7 @@
       </c>
       <c r="B24" s="2">
         <f>AVERAGE(B2:B22)</f>
-        <v>15.714285714285714</v>
+        <v>15.761904761904763</v>
       </c>
       <c r="C24" s="2">
         <f>AVERAGE(C2:C22)</f>
@@ -17019,11 +17043,11 @@
       </c>
       <c r="E24" s="2">
         <f>AVERAGE(E2:E22)</f>
-        <v>12.428571428571429</v>
+        <v>12.476190476190476</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="1"/>
-        <v>0.66409266409266399</v>
+        <v>0.66280566280566289</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Andy Murray.xlsx
+++ b/Tennis/ATP Tour/Andy Murray.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11619" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C590B7E7-F103-48CE-80BC-10F4D815F284}"/>
+  <xr:revisionPtr revIDLastSave="11627" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57373FB3-B26C-4129-B033-B360B4263459}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4986" uniqueCount="1056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4992" uniqueCount="1057">
   <si>
     <t>ROUND</t>
   </si>
@@ -3224,6 +3224,9 @@
   </si>
   <si>
     <t>6-7(5) 6-3 6-2</t>
+  </si>
+  <si>
+    <t>7-6(5) 4-6 7-5</t>
   </si>
 </sst>
 </file>
@@ -3947,7 +3950,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4530,7 +4533,7 @@
                   <c:v>0.34482758620689657</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.46666666666666667</c:v>
+                  <c:v>0.43333333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15704,10 +15707,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" activeCellId="3" sqref="A2 A4 A8 A14"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16544,6 +16547,26 @@
       </c>
       <c r="F69" t="s">
         <v>1055</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>153</v>
+      </c>
+      <c r="B71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" t="s">
+        <v>946</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1056</v>
       </c>
     </row>
   </sheetData>
@@ -17024,7 +17047,7 @@
         <v>2023</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -17033,11 +17056,11 @@
         <v>30</v>
       </c>
       <c r="E22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="0"/>
-        <v>0.46666666666666667</v>
+        <v>0.43333333333333335</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -17046,7 +17069,7 @@
       </c>
       <c r="B23" s="2">
         <f>SUM(B2:B22)</f>
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C23" s="2">
         <f>SUM(C2:C22)</f>
@@ -17058,11 +17081,11 @@
       </c>
       <c r="E23" s="2">
         <f>SUM(E2:E22)</f>
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" ref="F23:F24" si="1">(D23-E23)/D23</f>
-        <v>0.66195372750642678</v>
+        <v>0.66066838046272491</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -17071,7 +17094,7 @@
       </c>
       <c r="B24" s="2">
         <f>AVERAGE(B2:B22)</f>
-        <v>15.80952380952381</v>
+        <v>15.857142857142858</v>
       </c>
       <c r="C24" s="2">
         <f>AVERAGE(C2:C22)</f>
@@ -17083,11 +17106,11 @@
       </c>
       <c r="E24" s="2">
         <f>AVERAGE(E2:E22)</f>
-        <v>12.523809523809524</v>
+        <v>12.571428571428571</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="1"/>
-        <v>0.66195372750642667</v>
+        <v>0.66066838046272502</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Andy Murray.xlsx
+++ b/Tennis/ATP Tour/Andy Murray.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11627" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57373FB3-B26C-4129-B033-B360B4263459}"/>
+  <xr:revisionPtr revIDLastSave="11628" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7041FFC9-0DBA-4845-8843-BCAAD523C15E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="9" r:id="rId1"/>
@@ -5936,7 +5936,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{561D6CE7-85AD-4EA1-B65B-EB56D5860EF0}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5948,7 +5948,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{333500D8-521C-4E52-9543-BD16AC14D6B9}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -6328,18 +6328,18 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A49" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6478,18 +6478,18 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A49" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -7690,18 +7690,18 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A49" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -8524,18 +8524,18 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A49" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -9817,18 +9817,18 @@
   </sheetPr>
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A49" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -11176,18 +11176,18 @@
   </sheetPr>
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -12598,18 +12598,18 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A49" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -13231,18 +13231,18 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A49" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -13496,18 +13496,18 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A49" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -13894,18 +13894,18 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A49" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -14063,18 +14063,18 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A49" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -14710,18 +14710,18 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A49" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -14852,18 +14852,18 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A49" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -15709,18 +15709,18 @@
   </sheetPr>
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A49" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -16583,17 +16583,17 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A49" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17135,18 +17135,18 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A49" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -17982,18 +17982,18 @@
   </sheetPr>
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A49" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -19078,18 +19078,18 @@
   </sheetPr>
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -19978,18 +19978,18 @@
   </sheetPr>
   <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A49" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -21188,18 +21188,18 @@
   </sheetPr>
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A49" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -22436,18 +22436,18 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A49" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -23493,18 +23493,18 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A49" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">

--- a/Tennis/ATP Tour/Andy Murray.xlsx
+++ b/Tennis/ATP Tour/Andy Murray.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11628" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7041FFC9-0DBA-4845-8843-BCAAD523C15E}"/>
+  <xr:revisionPtr revIDLastSave="11635" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A627D53D-EE16-416C-8A2D-3A9EB6695720}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="9" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4992" uniqueCount="1057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5033" uniqueCount="1059">
   <si>
     <t>ROUND</t>
   </si>
@@ -3227,6 +3227,12 @@
   </si>
   <si>
     <t>7-6(5) 4-6 7-5</t>
+  </si>
+  <si>
+    <t>Leandro Riedi (SWITZERLAND)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-7(9) 6-4 6-4 </t>
   </si>
 </sst>
 </file>
@@ -3776,7 +3782,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4533,7 +4539,7 @@
                   <c:v>0.34482758620689657</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.43333333333333335</c:v>
+                  <c:v>0.45161290322580644</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5936,7 +5942,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{561D6CE7-85AD-4EA1-B65B-EB56D5860EF0}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5948,7 +5954,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{333500D8-521C-4E52-9543-BD16AC14D6B9}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -6326,10 +6332,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A49" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6464,6 +6470,14 @@
         <v>78</v>
       </c>
     </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6478,8 +6492,8 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A49" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7401,6 +7415,12 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
       <c r="C73" t="s">
         <v>20</v>
       </c>
@@ -7688,10 +7708,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A49" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8510,6 +8530,14 @@
         <v>657</v>
       </c>
     </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8524,8 +8552,8 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A49" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9419,6 +9447,12 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
       <c r="C73" t="s">
         <v>30</v>
       </c>
@@ -9817,8 +9851,8 @@
   </sheetPr>
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A49" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10723,7 +10757,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B73" t="s">
         <v>18</v>
@@ -11176,8 +11210,8 @@
   </sheetPr>
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A49" sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12109,6 +12143,12 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
       <c r="C73" t="s">
         <v>19</v>
       </c>
@@ -12596,10 +12636,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A49" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13186,6 +13226,14 @@
       </c>
       <c r="F46" t="s">
         <v>797</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -13229,10 +13277,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A49" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13483,6 +13531,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -13494,10 +13550,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A49" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13881,6 +13937,14 @@
         <v>822</v>
       </c>
     </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -13892,10 +13956,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A49" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14050,6 +14114,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -14061,10 +14133,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A49" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14697,6 +14769,14 @@
         <v>782</v>
       </c>
     </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -14708,10 +14788,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A49" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14838,6 +14918,14 @@
         <v>195</v>
       </c>
     </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14850,10 +14938,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A49" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15695,6 +15783,14 @@
         <v>706</v>
       </c>
     </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15707,10 +15803,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A49" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16569,6 +16665,23 @@
         <v>1056</v>
       </c>
     </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1058</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -16580,10 +16693,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A49" sqref="A1:XFD1048576"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17047,20 +17160,20 @@
         <v>2023</v>
       </c>
       <c r="B22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E22">
         <v>17</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="0"/>
-        <v>0.43333333333333335</v>
+        <v>0.45161290322580644</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -17069,7 +17182,7 @@
       </c>
       <c r="B23" s="2">
         <f>SUM(B2:B22)</f>
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C23" s="2">
         <f>SUM(C2:C22)</f>
@@ -17077,7 +17190,7 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D2:D22)</f>
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E2:E22)</f>
@@ -17085,7 +17198,7 @@
       </c>
       <c r="F23" s="3">
         <f t="shared" ref="F23:F24" si="1">(D23-E23)/D23</f>
-        <v>0.66066838046272491</v>
+        <v>0.6611039794608472</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -17094,7 +17207,7 @@
       </c>
       <c r="B24" s="2">
         <f>AVERAGE(B2:B22)</f>
-        <v>15.857142857142858</v>
+        <v>15.904761904761905</v>
       </c>
       <c r="C24" s="2">
         <f>AVERAGE(C2:C22)</f>
@@ -17102,7 +17215,7 @@
       </c>
       <c r="D24" s="2">
         <f>AVERAGE(D2:D22)</f>
-        <v>37.047619047619051</v>
+        <v>37.095238095238095</v>
       </c>
       <c r="E24" s="2">
         <f>AVERAGE(E2:E22)</f>
@@ -17110,7 +17223,15 @@
       </c>
       <c r="F24" s="3">
         <f t="shared" si="1"/>
-        <v>0.66066838046272502</v>
+        <v>0.66110397946084731</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -17133,10 +17254,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A49" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17968,6 +18089,14 @@
         <v>196</v>
       </c>
     </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17982,8 +18111,8 @@
   </sheetPr>
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A49" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18853,6 +18982,14 @@
         <v>29</v>
       </c>
     </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>67</v>
@@ -19076,10 +19213,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A49" sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19965,6 +20102,14 @@
         <v>333</v>
       </c>
     </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -19978,8 +20123,8 @@
   </sheetPr>
   <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A49" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20884,6 +21029,14 @@
         <v>386</v>
       </c>
     </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>86</v>
@@ -21188,8 +21341,8 @@
   </sheetPr>
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A49" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22114,7 +22267,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B73" t="s">
         <v>18</v>
@@ -22436,8 +22589,8 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A49" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23338,7 +23491,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>465</v>
+        <v>86</v>
       </c>
       <c r="B73" t="s">
         <v>18</v>
@@ -23493,8 +23646,8 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A49" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24396,6 +24549,12 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
       <c r="C73" t="s">
         <v>38</v>
       </c>

--- a/Tennis/ATP Tour/Andy Murray.xlsx
+++ b/Tennis/ATP Tour/Andy Murray.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11635" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A627D53D-EE16-416C-8A2D-3A9EB6695720}"/>
+  <xr:revisionPtr revIDLastSave="11637" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D42D2AC6-A721-44B5-91BC-053C8C43FF1D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -5942,7 +5942,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{561D6CE7-85AD-4EA1-B65B-EB56D5860EF0}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5954,7 +5954,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{333500D8-521C-4E52-9543-BD16AC14D6B9}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -6026,10 +6026,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6334,8 +6330,8 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6492,8 +6488,8 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7710,8 +7706,8 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8552,8 +8548,8 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9851,8 +9847,8 @@
   </sheetPr>
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11210,8 +11206,8 @@
   </sheetPr>
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12638,8 +12634,8 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13279,8 +13275,8 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13552,8 +13548,8 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13958,8 +13954,8 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14135,8 +14131,8 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14790,8 +14786,8 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14940,8 +14936,8 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15805,8 +15801,8 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16696,12 +16692,12 @@
   <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
@@ -17256,8 +17252,8 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18111,8 +18107,8 @@
   </sheetPr>
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19215,8 +19211,8 @@
   </sheetPr>
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20123,8 +20119,8 @@
   </sheetPr>
   <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21341,8 +21337,8 @@
   </sheetPr>
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22589,8 +22585,8 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23646,8 +23642,8 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/ATP Tour/Andy Murray.xlsx
+++ b/Tennis/ATP Tour/Andy Murray.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="11656" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{377E84E3-AE91-493B-8FF0-94981F1B5FF9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="15" activeTab="22" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="15" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="9" r:id="rId1"/>
@@ -5946,7 +5946,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{561D6CE7-85AD-4EA1-B65B-EB56D5860EF0}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5958,7 +5958,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{333500D8-521C-4E52-9543-BD16AC14D6B9}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -6030,6 +6030,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6334,7 +6338,7 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6492,7 +6496,7 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7710,7 +7714,7 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8552,7 +8556,7 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9851,7 +9855,7 @@
   </sheetPr>
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11210,7 +11214,7 @@
   </sheetPr>
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12638,7 +12642,7 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -13279,7 +13283,7 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -13552,7 +13556,7 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -13958,7 +13962,7 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -14135,7 +14139,7 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -14790,7 +14794,7 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -14940,7 +14944,7 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -15805,7 +15809,7 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -16762,7 +16766,7 @@
   </sheetPr>
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -17344,7 +17348,7 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -18199,7 +18203,7 @@
   </sheetPr>
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -19303,7 +19307,7 @@
   </sheetPr>
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -20211,7 +20215,7 @@
   </sheetPr>
   <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -21429,7 +21433,7 @@
   </sheetPr>
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -22677,7 +22681,7 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -23734,7 +23738,7 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/ATP Tour/Andy Murray.xlsx
+++ b/Tennis/ATP Tour/Andy Murray.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11656" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{377E84E3-AE91-493B-8FF0-94981F1B5FF9}"/>
+  <xr:revisionPtr revIDLastSave="11670" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B038DD0-4633-4A9C-B53D-0F368818B967}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="15" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="15" activeTab="22" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="9" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5045" uniqueCount="1060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5049" uniqueCount="1059">
   <si>
     <t>ROUND</t>
   </si>
@@ -3075,9 +3075,6 @@
   </si>
   <si>
     <t>Sebastian Korda (USA)</t>
-  </si>
-  <si>
-    <t>Silles Simon (FRANCE)</t>
   </si>
   <si>
     <t>6-1 6-7(7) 6-3 6-4</t>
@@ -6037,9 +6034,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6077,7 +6074,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6183,7 +6180,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6325,7 +6322,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8102,7 +8099,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -8978,7 +8975,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B35" t="s">
         <v>14</v>
@@ -10347,7 +10344,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
@@ -11512,7 +11509,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -12994,7 +12991,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -13382,7 +13379,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>16</v>
@@ -14942,10 +14939,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A70" activeCellId="20" sqref="A2 A4 A10 A13 A16 A19 A22 A25 A28 A32 A37 A43 A46 A50 A52 A54 A57 A61 A63 A67 A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15280,7 +15277,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -15778,21 +15775,13 @@
         <v>23</v>
       </c>
       <c r="D70" t="s">
-        <v>1006</v>
+        <v>127</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F70" t="s">
         <v>706</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>86</v>
-      </c>
-      <c r="B73" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -15809,8 +15798,8 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15845,7 +15834,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -15880,7 +15869,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -15894,7 +15883,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -15908,7 +15897,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -15922,13 +15911,13 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
         <v>1011</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -15936,13 +15925,13 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>1013</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -15950,13 +15939,13 @@
         <v>30</v>
       </c>
       <c r="D10" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
         <v>1015</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -15964,13 +15953,13 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
         <v>1017</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -15998,13 +15987,13 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -16012,7 +16001,7 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>16</v>
@@ -16026,13 +16015,13 @@
         <v>19</v>
       </c>
       <c r="D16" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
         <v>1023</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -16046,7 +16035,7 @@
         <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>17</v>
@@ -16077,7 +16066,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -16086,7 +16075,7 @@
         <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>17</v>
@@ -16097,7 +16086,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -16121,7 +16110,7 @@
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>16</v>
@@ -16136,7 +16125,7 @@
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>16</v>
@@ -16151,7 +16140,7 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
@@ -16197,7 +16186,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -16226,7 +16215,7 @@
         <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>16</v>
@@ -16241,7 +16230,7 @@
         <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>16</v>
@@ -16256,7 +16245,7 @@
         <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>16</v>
@@ -16306,7 +16295,7 @@
         <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>16</v>
@@ -16320,7 +16309,7 @@
         <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>16</v>
@@ -16334,13 +16323,13 @@
         <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -16348,7 +16337,7 @@
         <v>31</v>
       </c>
       <c r="D43" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>16</v>
@@ -16362,7 +16351,7 @@
         <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>16</v>
@@ -16402,13 +16391,13 @@
         <v>22</v>
       </c>
       <c r="D48" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" t="s">
         <v>1042</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -16422,12 +16411,12 @@
         <v>17</v>
       </c>
       <c r="F49" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B51" t="s">
         <v>18</v>
@@ -16436,7 +16425,7 @@
         <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>16</v>
@@ -16456,7 +16445,7 @@
         <v>17</v>
       </c>
       <c r="F52" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -16470,13 +16459,13 @@
         <v>23</v>
       </c>
       <c r="D54" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -16490,7 +16479,7 @@
         <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -16518,7 +16507,7 @@
         <v>22</v>
       </c>
       <c r="D58" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>16</v>
@@ -16538,7 +16527,7 @@
         <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -16552,7 +16541,7 @@
         <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>16</v>
@@ -16592,7 +16581,7 @@
         <v>17</v>
       </c>
       <c r="F64" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -16626,7 +16615,7 @@
         <v>19</v>
       </c>
       <c r="D68" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>16</v>
@@ -16640,13 +16629,13 @@
         <v>20</v>
       </c>
       <c r="D69" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F69" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -16666,7 +16655,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -16677,13 +16666,13 @@
         <v>18</v>
       </c>
       <c r="D73" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" t="s">
         <v>1057</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F73" t="s">
-        <v>1058</v>
       </c>
     </row>
   </sheetData>
@@ -16697,18 +16686,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
@@ -16750,7 +16739,27 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>1059</v>
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -16766,8 +16775,8 @@
   </sheetPr>
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17252,7 +17261,7 @@
         <v>2024</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -17261,7 +17270,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="4" t="e">
         <f t="shared" si="0"/>
@@ -17274,7 +17283,7 @@
       </c>
       <c r="B24" s="2">
         <f>SUM(B2:B23)</f>
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C24" s="2">
         <f>SUM(C2:C23)</f>
@@ -17286,11 +17295,11 @@
       </c>
       <c r="E24" s="2">
         <f>SUM(E2:E23)</f>
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" ref="F24:F25" si="1">(D24-E24)/D24</f>
-        <v>0.65982028241335045</v>
+        <v>0.65853658536585369</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -17299,7 +17308,7 @@
       </c>
       <c r="B25" s="2">
         <f>AVERAGE(B2:B23)</f>
-        <v>15.227272727272727</v>
+        <v>15.272727272727273</v>
       </c>
       <c r="C25" s="2">
         <f>AVERAGE(C2:C23)</f>
@@ -17311,11 +17320,11 @@
       </c>
       <c r="E25" s="2">
         <f>AVERAGE(E2:E23)</f>
-        <v>12.045454545454545</v>
+        <v>12.090909090909092</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="1"/>
-        <v>0.65982028241335033</v>
+        <v>0.65853658536585358</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -21993,7 +22002,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
@@ -22991,7 +23000,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -24000,7 +24009,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>

--- a/Tennis/ATP Tour/Andy Murray.xlsx
+++ b/Tennis/ATP Tour/Andy Murray.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11670" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B038DD0-4633-4A9C-B53D-0F368818B967}"/>
+  <xr:revisionPtr revIDLastSave="11679" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A50EE1C-EB57-44EC-960D-AD26F980CFBD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="15" activeTab="22" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="19140" yWindow="1560" windowWidth="18780" windowHeight="15285" firstSheet="15" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="9" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5049" uniqueCount="1059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5055" uniqueCount="1060">
   <si>
     <t>ROUND</t>
   </si>
@@ -3234,6 +3234,9 @@
   </si>
   <si>
     <t>4-6 7-5 6-2</t>
+  </si>
+  <si>
+    <t>2-6 7-6(5) 6-3</t>
   </si>
 </sst>
 </file>
@@ -6034,9 +6037,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6074,7 +6077,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6180,7 +6183,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6322,7 +6325,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -16686,10 +16689,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16699,7 +16702,7 @@
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -16760,6 +16763,26 @@
       </c>
       <c r="F4" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>961</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>915</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1059</v>
       </c>
     </row>
   </sheetData>
@@ -16775,8 +16798,8 @@
   </sheetPr>
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17261,7 +17284,7 @@
         <v>2024</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -17270,7 +17293,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" s="4" t="e">
         <f t="shared" si="0"/>
@@ -17283,7 +17306,7 @@
       </c>
       <c r="B24" s="2">
         <f>SUM(B2:B23)</f>
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C24" s="2">
         <f>SUM(C2:C23)</f>
@@ -17295,11 +17318,11 @@
       </c>
       <c r="E24" s="2">
         <f>SUM(E2:E23)</f>
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" ref="F24:F25" si="1">(D24-E24)/D24</f>
-        <v>0.65853658536585369</v>
+        <v>0.65725288831835682</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -17308,7 +17331,7 @@
       </c>
       <c r="B25" s="2">
         <f>AVERAGE(B2:B23)</f>
-        <v>15.272727272727273</v>
+        <v>15.318181818181818</v>
       </c>
       <c r="C25" s="2">
         <f>AVERAGE(C2:C23)</f>
@@ -17320,11 +17343,11 @@
       </c>
       <c r="E25" s="2">
         <f>AVERAGE(E2:E23)</f>
-        <v>12.090909090909092</v>
+        <v>12.136363636363637</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="1"/>
-        <v>0.65853658536585358</v>
+        <v>0.65725288831835682</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">

--- a/Tennis/ATP Tour/Andy Murray.xlsx
+++ b/Tennis/ATP Tour/Andy Murray.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11679" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A50EE1C-EB57-44EC-960D-AD26F980CFBD}"/>
+  <xr:revisionPtr revIDLastSave="11687" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09EDBDED-D88A-49FF-9AE5-DB478BC5E26E}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="19140" yWindow="1560" windowWidth="18780" windowHeight="15285" firstSheet="15" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="19305" windowHeight="17130" firstSheet="15" activeTab="22" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="9" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5055" uniqueCount="1060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5061" uniqueCount="1062">
   <si>
     <t>ROUND</t>
   </si>
@@ -3237,6 +3237,12 @@
   </si>
   <si>
     <t>2-6 7-6(5) 6-3</t>
+  </si>
+  <si>
+    <t>MARSEILLE OPEN</t>
+  </si>
+  <si>
+    <t>Tomáš Macháč (CZECH REPUBLIC)</t>
   </si>
 </sst>
 </file>
@@ -16689,10 +16695,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16785,6 +16791,26 @@
         <v>1059</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -16798,7 +16824,7 @@
   </sheetPr>
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -17284,7 +17310,7 @@
         <v>2024</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -17293,7 +17319,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" s="4" t="e">
         <f t="shared" si="0"/>
@@ -17306,7 +17332,7 @@
       </c>
       <c r="B24" s="2">
         <f>SUM(B2:B23)</f>
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C24" s="2">
         <f>SUM(C2:C23)</f>
@@ -17318,11 +17344,11 @@
       </c>
       <c r="E24" s="2">
         <f>SUM(E2:E23)</f>
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" ref="F24:F25" si="1">(D24-E24)/D24</f>
-        <v>0.65725288831835682</v>
+        <v>0.65596919127086006</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -17331,7 +17357,7 @@
       </c>
       <c r="B25" s="2">
         <f>AVERAGE(B2:B23)</f>
-        <v>15.318181818181818</v>
+        <v>15.363636363636363</v>
       </c>
       <c r="C25" s="2">
         <f>AVERAGE(C2:C23)</f>
@@ -17343,11 +17369,11 @@
       </c>
       <c r="E25" s="2">
         <f>AVERAGE(E2:E23)</f>
-        <v>12.136363636363637</v>
+        <v>12.181818181818182</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="1"/>
-        <v>0.65725288831835682</v>
+        <v>0.65596919127086006</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">

--- a/Tennis/ATP Tour/Andy Murray.xlsx
+++ b/Tennis/ATP Tour/Andy Murray.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11687" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09EDBDED-D88A-49FF-9AE5-DB478BC5E26E}"/>
+  <xr:revisionPtr revIDLastSave="11699" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D2DABC4-3388-4596-87E8-F2D8C965D352}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="19305" windowHeight="17130" firstSheet="15" activeTab="22" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="33240" windowHeight="21120" firstSheet="15" activeTab="24" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="9" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5061" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5071" uniqueCount="1065">
   <si>
     <t>ROUND</t>
   </si>
@@ -3243,6 +3243,15 @@
   </si>
   <si>
     <t>Tomáš Macháč (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>6-1 7-6(5)</t>
+  </si>
+  <si>
+    <t>Jakub Menšík (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>7-6(6) 6-7(3) 7-6(4)</t>
   </si>
 </sst>
 </file>
@@ -5964,7 +5973,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{333500D8-521C-4E52-9543-BD16AC14D6B9}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5976,7 +5985,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
+    <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -6009,7 +6018,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
+    <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -15807,8 +15816,8 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16695,10 +16704,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16708,7 +16717,7 @@
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -16809,6 +16818,40 @@
       </c>
       <c r="F8" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1064</v>
       </c>
     </row>
   </sheetData>
@@ -16824,7 +16867,7 @@
   </sheetPr>
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -17310,20 +17353,20 @@
         <v>2024</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>4</v>
-      </c>
-      <c r="F23" s="4" t="e">
+        <v>5</v>
+      </c>
+      <c r="F23" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -17332,7 +17375,7 @@
       </c>
       <c r="B24" s="2">
         <f>SUM(B2:B23)</f>
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C24" s="2">
         <f>SUM(C2:C23)</f>
@@ -17340,15 +17383,15 @@
       </c>
       <c r="D24" s="2">
         <f>SUM(D2:D23)</f>
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E24" s="2">
         <f>SUM(E2:E23)</f>
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" ref="F24:F25" si="1">(D24-E24)/D24</f>
-        <v>0.65596919127086006</v>
+        <v>0.65512820512820513</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -17357,7 +17400,7 @@
       </c>
       <c r="B25" s="2">
         <f>AVERAGE(B2:B23)</f>
-        <v>15.363636363636363</v>
+        <v>15.409090909090908</v>
       </c>
       <c r="C25" s="2">
         <f>AVERAGE(C2:C23)</f>
@@ -17365,15 +17408,15 @@
       </c>
       <c r="D25" s="2">
         <f>AVERAGE(D2:D23)</f>
-        <v>35.409090909090907</v>
+        <v>35.454545454545453</v>
       </c>
       <c r="E25" s="2">
         <f>AVERAGE(E2:E23)</f>
-        <v>12.181818181818182</v>
+        <v>12.227272727272727</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="1"/>
-        <v>0.65596919127086006</v>
+        <v>0.65512820512820513</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">

--- a/Tennis/ATP Tour/Andy Murray.xlsx
+++ b/Tennis/ATP Tour/Andy Murray.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11699" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D2DABC4-3388-4596-87E8-F2D8C965D352}"/>
+  <xr:revisionPtr revIDLastSave="11711" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C90E066A-E531-4C1B-9001-647186DB32FD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="33240" windowHeight="21120" firstSheet="15" activeTab="24" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="15" activeTab="22" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="9" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5071" uniqueCount="1065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5081" uniqueCount="1066">
   <si>
     <t>ROUND</t>
   </si>
@@ -3252,6 +3252,9 @@
   </si>
   <si>
     <t>7-6(6) 6-7(3) 7-6(4)</t>
+  </si>
+  <si>
+    <t>4-6 7-6(5) 6-3</t>
   </si>
 </sst>
 </file>
@@ -5973,7 +5976,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{333500D8-521C-4E52-9543-BD16AC14D6B9}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -6052,9 +6055,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6092,7 +6095,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6198,7 +6201,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6340,7 +6343,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -16704,7 +16707,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -16712,7 +16715,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
@@ -16852,6 +16855,40 @@
       </c>
       <c r="F11" t="s">
         <v>1064</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>348</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>965</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>954</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -16867,7 +16904,7 @@
   </sheetPr>
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -17353,20 +17390,20 @@
         <v>2024</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -17375,7 +17412,7 @@
       </c>
       <c r="B24" s="2">
         <f>SUM(B2:B23)</f>
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C24" s="2">
         <f>SUM(C2:C23)</f>
@@ -17383,15 +17420,15 @@
       </c>
       <c r="D24" s="2">
         <f>SUM(D2:D23)</f>
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E24" s="2">
         <f>SUM(E2:E23)</f>
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" ref="F24:F25" si="1">(D24-E24)/D24</f>
-        <v>0.65512820512820513</v>
+        <v>0.6542893725992317</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -17400,7 +17437,7 @@
       </c>
       <c r="B25" s="2">
         <f>AVERAGE(B2:B23)</f>
-        <v>15.409090909090908</v>
+        <v>15.454545454545455</v>
       </c>
       <c r="C25" s="2">
         <f>AVERAGE(C2:C23)</f>
@@ -17408,15 +17445,15 @@
       </c>
       <c r="D25" s="2">
         <f>AVERAGE(D2:D23)</f>
-        <v>35.454545454545453</v>
+        <v>35.5</v>
       </c>
       <c r="E25" s="2">
         <f>AVERAGE(E2:E23)</f>
-        <v>12.227272727272727</v>
+        <v>12.272727272727273</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="1"/>
-        <v>0.65512820512820513</v>
+        <v>0.6542893725992317</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">

--- a/Tennis/ATP Tour/Andy Murray.xlsx
+++ b/Tennis/ATP Tour/Andy Murray.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11711" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C90E066A-E531-4C1B-9001-647186DB32FD}"/>
+  <xr:revisionPtr revIDLastSave="11723" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A6EED9B-6D43-40F0-8040-5E35C390139D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="15" activeTab="22" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5081" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5091" uniqueCount="1066">
   <si>
     <t>ROUND</t>
   </si>
@@ -16707,10 +16707,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16889,6 +16889,40 @@
       </c>
       <c r="F14" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>889</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>925</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -17390,20 +17424,20 @@
         <v>2024</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-1.3333333333333333</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -17412,7 +17446,7 @@
       </c>
       <c r="B24" s="2">
         <f>SUM(B2:B23)</f>
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C24" s="2">
         <f>SUM(C2:C23)</f>
@@ -17420,15 +17454,15 @@
       </c>
       <c r="D24" s="2">
         <f>SUM(D2:D23)</f>
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E24" s="2">
         <f>SUM(E2:E23)</f>
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" ref="F24:F25" si="1">(D24-E24)/D24</f>
-        <v>0.6542893725992317</v>
+        <v>0.65345268542199486</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -17437,7 +17471,7 @@
       </c>
       <c r="B25" s="2">
         <f>AVERAGE(B2:B23)</f>
-        <v>15.454545454545455</v>
+        <v>15.5</v>
       </c>
       <c r="C25" s="2">
         <f>AVERAGE(C2:C23)</f>
@@ -17445,15 +17479,15 @@
       </c>
       <c r="D25" s="2">
         <f>AVERAGE(D2:D23)</f>
-        <v>35.5</v>
+        <v>35.545454545454547</v>
       </c>
       <c r="E25" s="2">
         <f>AVERAGE(E2:E23)</f>
-        <v>12.272727272727273</v>
+        <v>12.318181818181818</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="1"/>
-        <v>0.6542893725992317</v>
+        <v>0.65345268542199486</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">

--- a/Tennis/ATP Tour/Andy Murray.xlsx
+++ b/Tennis/ATP Tour/Andy Murray.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11723" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A6EED9B-6D43-40F0-8040-5E35C390139D}"/>
+  <xr:revisionPtr revIDLastSave="11740" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A8E9F85-A286-4DB3-B158-0FD3DC5C3994}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="15" activeTab="22" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5091" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5105" uniqueCount="1068">
   <si>
     <t>ROUND</t>
   </si>
@@ -3255,6 +3255,12 @@
   </si>
   <si>
     <t>4-6 7-6(5) 6-3</t>
+  </si>
+  <si>
+    <t>7-6(0) 6-3</t>
+  </si>
+  <si>
+    <t>5-7 7-5 7-6(5)</t>
   </si>
 </sst>
 </file>
@@ -15820,7 +15826,7 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16707,10 +16713,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E19" activeCellId="3" sqref="E10 E13 E16 E19:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16911,7 +16917,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>23</v>
       </c>
@@ -16923,6 +16929,54 @@
       </c>
       <c r="F17" t="s">
         <v>382</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>948</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1067</v>
       </c>
     </row>
   </sheetData>
@@ -17424,20 +17478,20 @@
         <v>2024</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="0"/>
-        <v>-1.3333333333333333</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -17446,7 +17500,7 @@
       </c>
       <c r="B24" s="2">
         <f>SUM(B2:B23)</f>
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C24" s="2">
         <f>SUM(C2:C23)</f>
@@ -17454,15 +17508,15 @@
       </c>
       <c r="D24" s="2">
         <f>SUM(D2:D23)</f>
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="E24" s="2">
         <f>SUM(E2:E23)</f>
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" ref="F24:F25" si="1">(D24-E24)/D24</f>
-        <v>0.65345268542199486</v>
+        <v>0.65306122448979587</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -17471,7 +17525,7 @@
       </c>
       <c r="B25" s="2">
         <f>AVERAGE(B2:B23)</f>
-        <v>15.5</v>
+        <v>15.545454545454545</v>
       </c>
       <c r="C25" s="2">
         <f>AVERAGE(C2:C23)</f>
@@ -17479,15 +17533,15 @@
       </c>
       <c r="D25" s="2">
         <f>AVERAGE(D2:D23)</f>
-        <v>35.545454545454547</v>
+        <v>35.636363636363633</v>
       </c>
       <c r="E25" s="2">
         <f>AVERAGE(E2:E23)</f>
-        <v>12.318181818181818</v>
+        <v>12.363636363636363</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="1"/>
-        <v>0.65345268542199486</v>
+        <v>0.65306122448979587</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">

--- a/Tennis/ATP Tour/Andy Murray.xlsx
+++ b/Tennis/ATP Tour/Andy Murray.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="11740" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A8E9F85-A286-4DB3-B158-0FD3DC5C3994}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="15" activeTab="22" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="15" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="9" r:id="rId1"/>
@@ -6056,10 +6056,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -16715,7 +16711,7 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E19" activeCellId="3" sqref="E10 E13 E16 E19:E20"/>
     </sheetView>
   </sheetViews>
@@ -16992,8 +16988,8 @@
   </sheetPr>
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tennis/ATP Tour/Andy Murray.xlsx
+++ b/Tennis/ATP Tour/Andy Murray.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="11740" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A8E9F85-A286-4DB3-B158-0FD3DC5C3994}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="15" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="15" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="9" r:id="rId1"/>
@@ -6056,6 +6056,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -16712,7 +16716,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" activeCellId="3" sqref="E10 E13 E16 E19:E20"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tennis/ATP Tour/Andy Murray.xlsx
+++ b/Tennis/ATP Tour/Andy Murray.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11740" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A8E9F85-A286-4DB3-B158-0FD3DC5C3994}"/>
+  <xr:revisionPtr revIDLastSave="11751" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E7C92EA-C2E1-4D4C-B34F-ECB4A61EF9F8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="15" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="15" activeTab="22" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="9" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5105" uniqueCount="1068">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5115" uniqueCount="1072">
   <si>
     <t>ROUND</t>
   </si>
@@ -3261,6 +3261,18 @@
   </si>
   <si>
     <t>5-7 7-5 7-6(5)</t>
+  </si>
+  <si>
+    <t>ATP BORDEAUX CHALLENGER</t>
+  </si>
+  <si>
+    <t>Kyrian Jacquet (FRANCE)</t>
+  </si>
+  <si>
+    <t>7-5 2-0 RETIRED</t>
+  </si>
+  <si>
+    <t>Grégoire Barrère (FRANCE)</t>
   </si>
 </sst>
 </file>
@@ -14968,8 +14980,8 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A70" activeCellId="20" sqref="A2 A4 A10 A13 A16 A19 A22 A25 A28 A32 A37 A43 A46 A50 A52 A54 A57 A61 A63 A67 A70"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15826,7 +15838,7 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A24" sqref="A24:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16713,10 +16725,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16979,6 +16991,40 @@
         <v>1067</v>
       </c>
     </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -16992,8 +17038,8 @@
   </sheetPr>
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17478,20 +17524,20 @@
         <v>2024</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="0"/>
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -17500,7 +17546,7 @@
       </c>
       <c r="B24" s="2">
         <f>SUM(B2:B23)</f>
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C24" s="2">
         <f>SUM(C2:C23)</f>
@@ -17508,15 +17554,15 @@
       </c>
       <c r="D24" s="2">
         <f>SUM(D2:D23)</f>
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E24" s="2">
         <f>SUM(E2:E23)</f>
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" ref="F24:F25" si="1">(D24-E24)/D24</f>
-        <v>0.65306122448979587</v>
+        <v>0.65222929936305729</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -17525,7 +17571,7 @@
       </c>
       <c r="B25" s="2">
         <f>AVERAGE(B2:B23)</f>
-        <v>15.545454545454545</v>
+        <v>15.590909090909092</v>
       </c>
       <c r="C25" s="2">
         <f>AVERAGE(C2:C23)</f>
@@ -17533,15 +17579,15 @@
       </c>
       <c r="D25" s="2">
         <f>AVERAGE(D2:D23)</f>
-        <v>35.636363636363633</v>
+        <v>35.68181818181818</v>
       </c>
       <c r="E25" s="2">
         <f>AVERAGE(E2:E23)</f>
-        <v>12.363636363636363</v>
+        <v>12.409090909090908</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="1"/>
-        <v>0.65306122448979587</v>
+        <v>0.6522292993630574</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">

--- a/Tennis/ATP Tour/Andy Murray.xlsx
+++ b/Tennis/ATP Tour/Andy Murray.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11751" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E7C92EA-C2E1-4D4C-B34F-ECB4A61EF9F8}"/>
+  <xr:revisionPtr revIDLastSave="11759" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F7D78B9-C1BF-43DB-BA93-B73D7E7AD9A6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="15" activeTab="22" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5115" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5121" uniqueCount="1073">
   <si>
     <t>ROUND</t>
   </si>
@@ -3273,6 +3273,9 @@
   </si>
   <si>
     <t>Grégoire Barrère (FRANCE)</t>
+  </si>
+  <si>
+    <t>GENEVA OPEN</t>
   </si>
 </sst>
 </file>
@@ -15837,8 +15840,8 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:B24"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16725,10 +16728,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17023,6 +17026,26 @@
       </c>
       <c r="F24" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -17524,7 +17547,7 @@
         <v>2024</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -17533,11 +17556,11 @@
         <v>6</v>
       </c>
       <c r="E23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="0"/>
-        <v>-0.5</v>
+        <v>-0.66666666666666663</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -17546,7 +17569,7 @@
       </c>
       <c r="B24" s="2">
         <f>SUM(B2:B23)</f>
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C24" s="2">
         <f>SUM(C2:C23)</f>
@@ -17558,11 +17581,11 @@
       </c>
       <c r="E24" s="2">
         <f>SUM(E2:E23)</f>
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" ref="F24:F25" si="1">(D24-E24)/D24</f>
-        <v>0.65222929936305729</v>
+        <v>0.65095541401273882</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -17571,7 +17594,7 @@
       </c>
       <c r="B25" s="2">
         <f>AVERAGE(B2:B23)</f>
-        <v>15.590909090909092</v>
+        <v>15.636363636363637</v>
       </c>
       <c r="C25" s="2">
         <f>AVERAGE(C2:C23)</f>
@@ -17583,11 +17606,11 @@
       </c>
       <c r="E25" s="2">
         <f>AVERAGE(E2:E23)</f>
-        <v>12.409090909090908</v>
+        <v>12.454545454545455</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="1"/>
-        <v>0.6522292993630574</v>
+        <v>0.65095541401273882</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">

--- a/Tennis/ATP Tour/Andy Murray.xlsx
+++ b/Tennis/ATP Tour/Andy Murray.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11759" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F7D78B9-C1BF-43DB-BA93-B73D7E7AD9A6}"/>
+  <xr:revisionPtr revIDLastSave="11767" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{394F4F10-260D-4B02-BD5E-85C7189FDD57}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="15" activeTab="22" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5121" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5127" uniqueCount="1073">
   <si>
     <t>ROUND</t>
   </si>
@@ -16728,10 +16728,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17046,6 +17046,26 @@
       </c>
       <c r="F26" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>340</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -17547,7 +17567,7 @@
         <v>2024</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -17556,11 +17576,11 @@
         <v>6</v>
       </c>
       <c r="E23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="0"/>
-        <v>-0.66666666666666663</v>
+        <v>-0.83333333333333337</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -17569,7 +17589,7 @@
       </c>
       <c r="B24" s="2">
         <f>SUM(B2:B23)</f>
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C24" s="2">
         <f>SUM(C2:C23)</f>
@@ -17581,11 +17601,11 @@
       </c>
       <c r="E24" s="2">
         <f>SUM(E2:E23)</f>
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" ref="F24:F25" si="1">(D24-E24)/D24</f>
-        <v>0.65095541401273882</v>
+        <v>0.64968152866242035</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -17594,7 +17614,7 @@
       </c>
       <c r="B25" s="2">
         <f>AVERAGE(B2:B23)</f>
-        <v>15.636363636363637</v>
+        <v>15.681818181818182</v>
       </c>
       <c r="C25" s="2">
         <f>AVERAGE(C2:C23)</f>
@@ -17606,11 +17626,11 @@
       </c>
       <c r="E25" s="2">
         <f>AVERAGE(E2:E23)</f>
-        <v>12.454545454545455</v>
+        <v>12.5</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="1"/>
-        <v>0.65095541401273882</v>
+        <v>0.64968152866242035</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">

--- a/Tennis/ATP Tour/Andy Murray.xlsx
+++ b/Tennis/ATP Tour/Andy Murray.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11799" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E966444-5414-4FDB-92F0-42D2BF143C10}"/>
+  <xr:revisionPtr revIDLastSave="11823" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{292791A1-B2DB-46CA-8B2D-D447FD727C00}"/>
   <bookViews>
-    <workbookView xWindow="9465" yWindow="2265" windowWidth="28800" windowHeight="15345" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3810" yWindow="3810" windowWidth="28800" windowHeight="15285" firstSheet="7" activeTab="22" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="9" r:id="rId1"/>
@@ -35,9 +35,7 @@
     <sheet name="2022" sheetId="28" r:id="rId20"/>
     <sheet name="2023" sheetId="36" r:id="rId21"/>
     <sheet name="2024" sheetId="39" r:id="rId22"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId23"/>
-    <sheet name="Wins-Losses" sheetId="37" r:id="rId24"/>
-    <sheet name="Winning Percentile Range" sheetId="38" r:id="rId25"/>
+    <sheet name="Stats" sheetId="1" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3682,7 +3680,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$D$1</c:f>
+              <c:f>Stats!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3703,10 +3701,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$22</c:f>
+              <c:f>Stats!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>2003</c:v>
                 </c:pt>
@@ -3770,15 +3768,18 @@
                 <c:pt idx="20">
                   <c:v>2023</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$22</c:f>
+              <c:f>Stats!$D$2:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -3842,12 +3843,15 @@
                 <c:pt idx="20">
                   <c:v>31</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7C21-4B27-BABE-4329A7F71ADF}"/>
+              <c16:uniqueId val="{00000000-8FBD-460A-B3C3-CDA2AAA86FB0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3856,7 +3860,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$E$1</c:f>
+              <c:f>Stats!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3877,10 +3881,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$22</c:f>
+              <c:f>Stats!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>2003</c:v>
                 </c:pt>
@@ -3944,15 +3948,18 @@
                 <c:pt idx="20">
                   <c:v>2023</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$22</c:f>
+              <c:f>Stats!$E$2:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -4016,12 +4023,15 @@
                 <c:pt idx="20">
                   <c:v>17</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>13</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7C21-4B27-BABE-4329A7F71ADF}"/>
+              <c16:uniqueId val="{00000001-8FBD-460A-B3C3-CDA2AAA86FB0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4035,11 +4045,496 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1971256383"/>
-        <c:axId val="1971237663"/>
+        <c:axId val="2037231391"/>
+        <c:axId val="2037235711"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1971256383"/>
+        <c:axId val="2037231391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2037235711"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2037235711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2037231391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Andy Murray (GREAT BRITAIN)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t>: Winning Percentile Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stats!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WINNING PERCENTILE RANGE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Stats!$A$2:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$F$2:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.74137931034482762</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.60869565217391308</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7678571428571429</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.81395348837209303</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.66101694915254239</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.88461538461538458</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.38461538461538464</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.34482758620689657</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.45161290322580644</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.1666666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DCBF-46E2-9F22-396E44C963EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1115150255"/>
+        <c:axId val="1115144975"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1115150255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4137,7 +4632,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1971237663"/>
+        <c:crossAx val="1115144975"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4145,591 +4640,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1971237663"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>NUMBER OF MATCHES</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1971256383"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>Andy Murray (GREAT BRITAIN): Winning</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Percentile Range</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'YTD Stats'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>WINNING PERCENTILE RANGE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="00B050"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="00B050"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:cat>
-            <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2023</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$22</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.74137931034482762</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.83333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.60869565217391308</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.7678571428571429</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.7142857142857143</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.81395348837209303</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.66101694915254239</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.7857142857142857</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.88461538461538458</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.2857142857142857</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.38461538461538464</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.33333333333333331</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.34482758620689657</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.45161290322580644</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E69D-4F98-A507-42F2EA82296D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1931449375"/>
-        <c:axId val="1931447711"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1931449375"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>YEAR</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1931447711"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1931447711"/>
+        <c:axId val="1115144975"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4835,7 +4746,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1931449375"/>
+        <c:crossAx val="1115150255"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4907,6 +4818,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -5996,47 +5912,31 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{561D6CE7-85AD-4EA1-B65B-EB56D5860EF0}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{333500D8-521C-4E52-9543-BD16AC14D6B9}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1272288-09D5-6EAF-6D51-5C3D39B9FA48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B69D4F2-94AC-C7DA-9212-AE2E5CCF3814}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6049,27 +5949,30 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12BBE57F-4055-00F0-9365-2CEC48618EA3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1887197D-A1F2-4DBD-0A58-7CBF747619F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6077,12 +5980,12 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12681,7 +12584,7 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -17135,8 +17038,8 @@
   </sheetPr>
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17707,6 +17610,7 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
